--- a/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="995">
   <si>
     <t>shipmentType</t>
   </si>
@@ -2877,6 +2877,141 @@
   </si>
   <si>
     <t>FCBTXA1000037</t>
+  </si>
+  <si>
+    <t>51528167</t>
+  </si>
+  <si>
+    <t>01-24-2022</t>
+  </si>
+  <si>
+    <t>FCBTXA1000471</t>
+  </si>
+  <si>
+    <t>51528169</t>
+  </si>
+  <si>
+    <t>51528170</t>
+  </si>
+  <si>
+    <t>FCT935137870677540864</t>
+  </si>
+  <si>
+    <t>CEV1003831</t>
+  </si>
+  <si>
+    <t>51528173</t>
+  </si>
+  <si>
+    <t>FCT935139897608503296</t>
+  </si>
+  <si>
+    <t>CEV1003832</t>
+  </si>
+  <si>
+    <t>51528176</t>
+  </si>
+  <si>
+    <t>FCT935141915580432384</t>
+  </si>
+  <si>
+    <t>CEV1003833</t>
+  </si>
+  <si>
+    <t>51528178</t>
+  </si>
+  <si>
+    <t>51528179</t>
+  </si>
+  <si>
+    <t>FCT935144392929312768</t>
+  </si>
+  <si>
+    <t>CEV1003835</t>
+  </si>
+  <si>
+    <t>51528181</t>
+  </si>
+  <si>
+    <t>51528182</t>
+  </si>
+  <si>
+    <t>FCT935146694813679616</t>
+  </si>
+  <si>
+    <t>CEV1003837</t>
+  </si>
+  <si>
+    <t>51528184</t>
+  </si>
+  <si>
+    <t>51528185</t>
+  </si>
+  <si>
+    <t>FCT935148721933385728</t>
+  </si>
+  <si>
+    <t>CEV1003839</t>
+  </si>
+  <si>
+    <t>51528189</t>
+  </si>
+  <si>
+    <t>$63.06</t>
+  </si>
+  <si>
+    <t>1Z44R7R60395800896</t>
+  </si>
+  <si>
+    <t>FCUPSG1011995</t>
+  </si>
+  <si>
+    <t>51528193</t>
+  </si>
+  <si>
+    <t>$81.19</t>
+  </si>
+  <si>
+    <t>1Z44R7R60393789636</t>
+  </si>
+  <si>
+    <t>FCUPSG1011996</t>
+  </si>
+  <si>
+    <t>51528195</t>
+  </si>
+  <si>
+    <t>51528197</t>
+  </si>
+  <si>
+    <t>$153.08</t>
+  </si>
+  <si>
+    <t>1Z44R7R60398267100</t>
+  </si>
+  <si>
+    <t>FCUPSG1011998</t>
+  </si>
+  <si>
+    <t>51528200</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW93942453</t>
+  </si>
+  <si>
+    <t>FCUPSG1011999</t>
+  </si>
+  <si>
+    <t>51528203</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW90668078</t>
+  </si>
+  <si>
+    <t>FCUPSG1012000</t>
+  </si>
+  <si>
+    <t>51528205</t>
   </si>
 </sst>
 </file>
@@ -2912,7 +3047,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2280">
+  <fills count="2412">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14309,8 +14444,668 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2276">
+  <borders count="2408">
     <border>
       <left/>
       <right/>
@@ -22832,6 +23627,468 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -22840,7 +24097,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1189">
+  <cellXfs count="1255">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -24029,7 +25286,73 @@
     <xf applyBorder="true" applyFill="true" borderId="2269" fillId="2273" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="2271" fillId="2275" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="2273" fillId="2277" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2279" borderId="2275" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="2275" fillId="2279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2277" fillId="2281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2279" fillId="2283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2281" fillId="2285" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2283" fillId="2287" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2285" fillId="2289" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2287" fillId="2291" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2289" fillId="2293" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2291" fillId="2295" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2293" fillId="2297" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2295" fillId="2299" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2297" fillId="2301" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2299" fillId="2303" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2301" fillId="2305" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2303" fillId="2307" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2305" fillId="2309" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2307" fillId="2311" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2309" fillId="2313" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2311" fillId="2315" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2313" fillId="2317" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2315" fillId="2319" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2317" fillId="2321" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2319" fillId="2323" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2321" fillId="2325" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2323" fillId="2327" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2325" fillId="2329" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2327" fillId="2331" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2329" fillId="2333" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2331" fillId="2335" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2333" fillId="2337" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2335" fillId="2339" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2337" fillId="2341" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2339" fillId="2343" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2341" fillId="2345" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2343" fillId="2347" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2345" fillId="2349" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2347" fillId="2351" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2349" fillId="2353" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2351" fillId="2355" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2353" fillId="2357" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2355" fillId="2359" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2357" fillId="2361" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2359" fillId="2363" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2361" fillId="2365" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2363" fillId="2367" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2365" fillId="2369" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2367" fillId="2371" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2369" fillId="2373" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2371" fillId="2375" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2373" fillId="2377" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2375" fillId="2379" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2377" fillId="2381" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2379" fillId="2383" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2381" fillId="2385" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2383" fillId="2387" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2385" fillId="2389" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2387" fillId="2391" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2389" fillId="2393" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2391" fillId="2395" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2393" fillId="2397" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2395" fillId="2399" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2397" fillId="2401" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2399" fillId="2403" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2401" fillId="2405" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2403" fillId="2407" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2405" fillId="2409" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2411" borderId="2407" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -24677,8 +26000,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="1185" t="s">
-        <v>947</v>
+      <c r="B2" s="1190" t="s">
+        <v>951</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -24729,20 +26052,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="1184" t="s">
-        <v>946</v>
-      </c>
-      <c r="W2" s="1123" t="s">
-        <v>902</v>
-      </c>
-      <c r="X2" s="1186" t="s">
-        <v>948</v>
-      </c>
-      <c r="Y2" s="1187" t="s">
-        <v>949</v>
-      </c>
-      <c r="Z2" s="1188" t="s">
-        <v>949</v>
+      <c r="V2" s="1189" t="s">
+        <v>950</v>
+      </c>
+      <c r="W2" s="1194" t="s">
+        <v>953</v>
+      </c>
+      <c r="X2" s="1191" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" s="1192" t="s">
+        <v>952</v>
+      </c>
+      <c r="Z2" s="1193" t="s">
+        <v>952</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>145</v>
@@ -24765,8 +26088,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1125" t="s">
-        <v>900</v>
+      <c r="B3" s="1196" t="s">
+        <v>951</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -24819,20 +26142,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="1124" t="s">
-        <v>903</v>
+      <c r="V3" s="1195" t="s">
+        <v>954</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="X3" s="1126" t="s">
-        <v>422</v>
-      </c>
-      <c r="Y3" s="1127" t="s">
-        <v>904</v>
-      </c>
-      <c r="Z3" s="1128" t="s">
-        <v>905</v>
+      <c r="X3" s="1197" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y3" s="1198" t="s">
+        <v>955</v>
+      </c>
+      <c r="Z3" s="1199" t="s">
+        <v>956</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -24861,8 +26184,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="1130" t="s">
-        <v>900</v>
+      <c r="B4" s="1201" t="s">
+        <v>951</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -24913,20 +26236,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="1129" t="s">
-        <v>906</v>
+      <c r="V4" s="1200" t="s">
+        <v>957</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="X4" s="1131" t="s">
+      <c r="X4" s="1202" t="s">
         <v>404</v>
       </c>
-      <c r="Y4" s="1132" t="s">
-        <v>907</v>
-      </c>
-      <c r="Z4" s="1133" t="s">
-        <v>908</v>
+      <c r="Y4" s="1203" t="s">
+        <v>958</v>
+      </c>
+      <c r="Z4" s="1204" t="s">
+        <v>959</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -24953,8 +26276,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="1135" t="s">
-        <v>900</v>
+      <c r="B5" s="1206" t="s">
+        <v>951</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -25005,20 +26328,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="1134" t="s">
-        <v>909</v>
-      </c>
-      <c r="W5" s="1139" t="s">
-        <v>912</v>
-      </c>
-      <c r="X5" s="1136" t="s">
+      <c r="V5" s="1205" t="s">
+        <v>960</v>
+      </c>
+      <c r="W5" s="1210" t="s">
+        <v>963</v>
+      </c>
+      <c r="X5" s="1207" t="s">
         <v>408</v>
       </c>
-      <c r="Y5" s="1137" t="s">
-        <v>910</v>
-      </c>
-      <c r="Z5" s="1138" t="s">
-        <v>911</v>
+      <c r="Y5" s="1208" t="s">
+        <v>961</v>
+      </c>
+      <c r="Z5" s="1209" t="s">
+        <v>962</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -25049,8 +26372,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="1141" t="s">
-        <v>900</v>
+      <c r="B6" s="1212" t="s">
+        <v>951</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -25101,20 +26424,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="1140" t="s">
-        <v>913</v>
-      </c>
-      <c r="W6" s="1145" t="s">
-        <v>916</v>
-      </c>
-      <c r="X6" s="1142" t="s">
+      <c r="V6" s="1211" t="s">
+        <v>964</v>
+      </c>
+      <c r="W6" s="1216" t="s">
+        <v>967</v>
+      </c>
+      <c r="X6" s="1213" t="s">
         <v>404</v>
       </c>
-      <c r="Y6" s="1143" t="s">
-        <v>914</v>
-      </c>
-      <c r="Z6" s="1144" t="s">
-        <v>915</v>
+      <c r="Y6" s="1214" t="s">
+        <v>965</v>
+      </c>
+      <c r="Z6" s="1215" t="s">
+        <v>966</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -25141,8 +26464,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="1147" t="s">
-        <v>900</v>
+      <c r="B7" s="1218" t="s">
+        <v>951</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -25191,20 +26514,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="1146" t="s">
-        <v>917</v>
-      </c>
-      <c r="W7" s="1151" t="s">
-        <v>920</v>
-      </c>
-      <c r="X7" s="1148" t="s">
+      <c r="V7" s="1217" t="s">
+        <v>968</v>
+      </c>
+      <c r="W7" s="1222" t="s">
+        <v>971</v>
+      </c>
+      <c r="X7" s="1219" t="s">
         <v>417</v>
       </c>
-      <c r="Y7" s="1149" t="s">
-        <v>918</v>
-      </c>
-      <c r="Z7" s="1150" t="s">
-        <v>919</v>
+      <c r="Y7" s="1220" t="s">
+        <v>969</v>
+      </c>
+      <c r="Z7" s="1221" t="s">
+        <v>970</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -25227,8 +26550,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="1153" t="s">
-        <v>900</v>
+      <c r="B8" s="1224" t="s">
+        <v>951</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -25279,20 +26602,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="1152" t="s">
-        <v>921</v>
+      <c r="V8" s="1223" t="s">
+        <v>972</v>
       </c>
       <c r="W8" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="X8" s="1154" t="s">
+      <c r="X8" s="1225" t="s">
         <v>422</v>
       </c>
-      <c r="Y8" s="1155" t="s">
-        <v>922</v>
-      </c>
-      <c r="Z8" s="1156" t="s">
-        <v>923</v>
+      <c r="Y8" s="1226" t="s">
+        <v>973</v>
+      </c>
+      <c r="Z8" s="1227" t="s">
+        <v>974</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -25319,8 +26642,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1158" t="s">
-        <v>900</v>
+      <c r="B9" s="1229" t="s">
+        <v>951</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -25371,20 +26694,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="1157" t="s">
-        <v>924</v>
+      <c r="V9" s="1228" t="s">
+        <v>975</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="X9" s="1159" t="s">
-        <v>925</v>
-      </c>
-      <c r="Y9" s="1160" t="s">
-        <v>926</v>
-      </c>
-      <c r="Z9" s="1161" t="s">
-        <v>927</v>
+      <c r="X9" s="1230" t="s">
+        <v>976</v>
+      </c>
+      <c r="Y9" s="1231" t="s">
+        <v>977</v>
+      </c>
+      <c r="Z9" s="1232" t="s">
+        <v>978</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>144</v>
@@ -25405,8 +26728,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1163" t="s">
-        <v>900</v>
+      <c r="B10" s="1234" t="s">
+        <v>951</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -25455,20 +26778,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="1162" t="s">
-        <v>928</v>
-      </c>
-      <c r="W10" s="1167" t="s">
-        <v>932</v>
-      </c>
-      <c r="X10" s="1164" t="s">
-        <v>929</v>
-      </c>
-      <c r="Y10" s="1165" t="s">
-        <v>930</v>
-      </c>
-      <c r="Z10" s="1166" t="s">
-        <v>931</v>
+      <c r="V10" s="1233" t="s">
+        <v>979</v>
+      </c>
+      <c r="W10" s="1238" t="s">
+        <v>983</v>
+      </c>
+      <c r="X10" s="1235" t="s">
+        <v>980</v>
+      </c>
+      <c r="Y10" s="1236" t="s">
+        <v>981</v>
+      </c>
+      <c r="Z10" s="1237" t="s">
+        <v>982</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>
@@ -25487,8 +26810,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1169" t="s">
-        <v>900</v>
+      <c r="B11" s="1240" t="s">
+        <v>951</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -25539,20 +26862,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="1168" t="s">
-        <v>933</v>
+      <c r="V11" s="1239" t="s">
+        <v>984</v>
       </c>
       <c r="W11" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="X11" s="1170" t="s">
-        <v>934</v>
-      </c>
-      <c r="Y11" s="1171" t="s">
-        <v>935</v>
-      </c>
-      <c r="Z11" s="1172" t="s">
-        <v>936</v>
+      <c r="X11" s="1241" t="s">
+        <v>985</v>
+      </c>
+      <c r="Y11" s="1242" t="s">
+        <v>986</v>
+      </c>
+      <c r="Z11" s="1243" t="s">
+        <v>987</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>144</v>
@@ -25573,8 +26896,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1174" t="s">
-        <v>900</v>
+      <c r="B12" s="1245" t="s">
+        <v>951</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -25625,20 +26948,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="1173" t="s">
-        <v>937</v>
+      <c r="V12" s="1244" t="s">
+        <v>988</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="X12" s="1175" t="s">
-        <v>938</v>
-      </c>
-      <c r="Y12" s="1176" t="s">
-        <v>939</v>
-      </c>
-      <c r="Z12" s="1177" t="s">
-        <v>940</v>
+      <c r="X12" s="1246" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y12" s="1247" t="s">
+        <v>989</v>
+      </c>
+      <c r="Z12" s="1248" t="s">
+        <v>990</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -25659,8 +26982,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1179" t="s">
-        <v>900</v>
+      <c r="B13" s="1250" t="s">
+        <v>951</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -25709,20 +27032,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="1178" t="s">
-        <v>941</v>
-      </c>
-      <c r="W13" s="1183" t="s">
-        <v>945</v>
-      </c>
-      <c r="X13" s="1180" t="s">
-        <v>942</v>
-      </c>
-      <c r="Y13" s="1181" t="s">
-        <v>943</v>
-      </c>
-      <c r="Z13" s="1182" t="s">
-        <v>944</v>
+      <c r="V13" s="1249" t="s">
+        <v>991</v>
+      </c>
+      <c r="W13" s="1254" t="s">
+        <v>994</v>
+      </c>
+      <c r="X13" s="1251" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y13" s="1252" t="s">
+        <v>992</v>
+      </c>
+      <c r="Z13" s="1253" t="s">
+        <v>993</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="1039">
   <si>
     <t>shipmentType</t>
   </si>
@@ -3012,6 +3012,138 @@
   </si>
   <si>
     <t>51528205</t>
+  </si>
+  <si>
+    <t>51530470</t>
+  </si>
+  <si>
+    <t>02-10-2022</t>
+  </si>
+  <si>
+    <t>FCT941329988894851072</t>
+  </si>
+  <si>
+    <t>CEV1003945</t>
+  </si>
+  <si>
+    <t>51530473</t>
+  </si>
+  <si>
+    <t>FCT941331973329125376</t>
+  </si>
+  <si>
+    <t>CEV1003946</t>
+  </si>
+  <si>
+    <t>51530476</t>
+  </si>
+  <si>
+    <t>FCT941334045017505792</t>
+  </si>
+  <si>
+    <t>CEV1003947</t>
+  </si>
+  <si>
+    <t>51530478</t>
+  </si>
+  <si>
+    <t>51530479</t>
+  </si>
+  <si>
+    <t>FCT941336302941372416</t>
+  </si>
+  <si>
+    <t>CEV1003949</t>
+  </si>
+  <si>
+    <t>51530483</t>
+  </si>
+  <si>
+    <t>51530485</t>
+  </si>
+  <si>
+    <t>FCT941339107886366720</t>
+  </si>
+  <si>
+    <t>CEV1003951</t>
+  </si>
+  <si>
+    <t>51530487</t>
+  </si>
+  <si>
+    <t>51530488</t>
+  </si>
+  <si>
+    <t>FCT941341512707342336</t>
+  </si>
+  <si>
+    <t>CEV1003953</t>
+  </si>
+  <si>
+    <t>51530491</t>
+  </si>
+  <si>
+    <t>$63.21</t>
+  </si>
+  <si>
+    <t>1Z44R7R60399604501</t>
+  </si>
+  <si>
+    <t>FCUPSG1012063</t>
+  </si>
+  <si>
+    <t>51530494</t>
+  </si>
+  <si>
+    <t>$81.34</t>
+  </si>
+  <si>
+    <t>1Z44R7R60396781389</t>
+  </si>
+  <si>
+    <t>FCUPSG1012064</t>
+  </si>
+  <si>
+    <t>51530496</t>
+  </si>
+  <si>
+    <t>51530497</t>
+  </si>
+  <si>
+    <t>$153.38</t>
+  </si>
+  <si>
+    <t>1Z44R7R60394305076</t>
+  </si>
+  <si>
+    <t>FCUPSG1012066</t>
+  </si>
+  <si>
+    <t>51530500</t>
+  </si>
+  <si>
+    <t>$105.91</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW97680676</t>
+  </si>
+  <si>
+    <t>FCUPSG1012067</t>
+  </si>
+  <si>
+    <t>51530503</t>
+  </si>
+  <si>
+    <t>$131.15</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW93411651</t>
+  </si>
+  <si>
+    <t>FCUPSG1012068</t>
+  </si>
+  <si>
+    <t>51530505</t>
   </si>
 </sst>
 </file>
@@ -3047,7 +3179,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2412">
+  <fills count="2532">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15104,8 +15236,608 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2408">
+  <borders count="2528">
     <border>
       <left/>
       <right/>
@@ -24089,6 +24821,426 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -24097,7 +25249,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1255">
+  <cellXfs count="1315">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -25352,7 +26504,67 @@
     <xf applyBorder="true" applyFill="true" borderId="2401" fillId="2405" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="2403" fillId="2407" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="2405" fillId="2409" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2411" borderId="2407" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="2407" fillId="2411" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2409" fillId="2413" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2411" fillId="2415" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2413" fillId="2417" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2415" fillId="2419" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2417" fillId="2421" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2419" fillId="2423" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2421" fillId="2425" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2423" fillId="2427" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2425" fillId="2429" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2427" fillId="2431" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2429" fillId="2433" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2431" fillId="2435" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2433" fillId="2437" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2435" fillId="2439" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2437" fillId="2441" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2439" fillId="2443" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2441" fillId="2445" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2443" fillId="2447" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2445" fillId="2449" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2447" fillId="2451" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2449" fillId="2453" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2451" fillId="2455" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2453" fillId="2457" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2455" fillId="2459" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2457" fillId="2461" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2459" fillId="2463" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2461" fillId="2465" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2463" fillId="2467" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2465" fillId="2469" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2467" fillId="2471" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2469" fillId="2473" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2471" fillId="2475" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2473" fillId="2477" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2475" fillId="2479" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2477" fillId="2481" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2479" fillId="2483" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2481" fillId="2485" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2483" fillId="2487" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2485" fillId="2489" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2487" fillId="2491" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2489" fillId="2493" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2491" fillId="2495" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2493" fillId="2497" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2495" fillId="2499" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2497" fillId="2501" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2499" fillId="2503" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2501" fillId="2505" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2503" fillId="2507" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2505" fillId="2509" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2507" fillId="2511" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2509" fillId="2513" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2511" fillId="2515" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2513" fillId="2517" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2515" fillId="2519" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2517" fillId="2521" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2519" fillId="2523" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2521" fillId="2525" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2523" fillId="2527" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2525" fillId="2529" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2531" borderId="2527" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -26088,8 +27300,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1196" t="s">
-        <v>951</v>
+      <c r="B3" s="1256" t="s">
+        <v>996</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -26142,20 +27354,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="1195" t="s">
-        <v>954</v>
+      <c r="V3" s="1255" t="s">
+        <v>995</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="X3" s="1197" t="s">
+      <c r="X3" s="1257" t="s">
         <v>400</v>
       </c>
-      <c r="Y3" s="1198" t="s">
-        <v>955</v>
-      </c>
-      <c r="Z3" s="1199" t="s">
-        <v>956</v>
+      <c r="Y3" s="1258" t="s">
+        <v>997</v>
+      </c>
+      <c r="Z3" s="1259" t="s">
+        <v>998</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -26184,8 +27396,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="1201" t="s">
-        <v>951</v>
+      <c r="B4" s="1261" t="s">
+        <v>996</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -26236,20 +27448,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="1200" t="s">
-        <v>957</v>
+      <c r="V4" s="1260" t="s">
+        <v>999</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="X4" s="1202" t="s">
+      <c r="X4" s="1262" t="s">
         <v>404</v>
       </c>
-      <c r="Y4" s="1203" t="s">
-        <v>958</v>
-      </c>
-      <c r="Z4" s="1204" t="s">
-        <v>959</v>
+      <c r="Y4" s="1263" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Z4" s="1264" t="s">
+        <v>1001</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -26276,8 +27488,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="1206" t="s">
-        <v>951</v>
+      <c r="B5" s="1266" t="s">
+        <v>996</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -26328,20 +27540,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="1205" t="s">
-        <v>960</v>
-      </c>
-      <c r="W5" s="1210" t="s">
-        <v>963</v>
-      </c>
-      <c r="X5" s="1207" t="s">
+      <c r="V5" s="1265" t="s">
+        <v>1002</v>
+      </c>
+      <c r="W5" s="1270" t="s">
+        <v>1005</v>
+      </c>
+      <c r="X5" s="1267" t="s">
         <v>408</v>
       </c>
-      <c r="Y5" s="1208" t="s">
-        <v>961</v>
-      </c>
-      <c r="Z5" s="1209" t="s">
-        <v>962</v>
+      <c r="Y5" s="1268" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Z5" s="1269" t="s">
+        <v>1004</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -26372,8 +27584,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="1212" t="s">
-        <v>951</v>
+      <c r="B6" s="1272" t="s">
+        <v>996</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -26424,20 +27636,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="1211" t="s">
-        <v>964</v>
-      </c>
-      <c r="W6" s="1216" t="s">
-        <v>967</v>
-      </c>
-      <c r="X6" s="1213" t="s">
+      <c r="V6" s="1271" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W6" s="1276" t="s">
+        <v>1009</v>
+      </c>
+      <c r="X6" s="1273" t="s">
         <v>404</v>
       </c>
-      <c r="Y6" s="1214" t="s">
-        <v>965</v>
-      </c>
-      <c r="Z6" s="1215" t="s">
-        <v>966</v>
+      <c r="Y6" s="1274" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Z6" s="1275" t="s">
+        <v>1008</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -26464,8 +27676,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="1218" t="s">
-        <v>951</v>
+      <c r="B7" s="1278" t="s">
+        <v>996</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -26514,20 +27726,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="1217" t="s">
-        <v>968</v>
-      </c>
-      <c r="W7" s="1222" t="s">
-        <v>971</v>
-      </c>
-      <c r="X7" s="1219" t="s">
+      <c r="V7" s="1277" t="s">
+        <v>1010</v>
+      </c>
+      <c r="W7" s="1282" t="s">
+        <v>1013</v>
+      </c>
+      <c r="X7" s="1279" t="s">
         <v>417</v>
       </c>
-      <c r="Y7" s="1220" t="s">
-        <v>969</v>
-      </c>
-      <c r="Z7" s="1221" t="s">
-        <v>970</v>
+      <c r="Y7" s="1280" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Z7" s="1281" t="s">
+        <v>1012</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -26550,8 +27762,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="1224" t="s">
-        <v>951</v>
+      <c r="B8" s="1284" t="s">
+        <v>996</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -26602,20 +27814,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="1223" t="s">
-        <v>972</v>
+      <c r="V8" s="1283" t="s">
+        <v>1014</v>
       </c>
       <c r="W8" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="X8" s="1225" t="s">
+      <c r="X8" s="1285" t="s">
         <v>422</v>
       </c>
-      <c r="Y8" s="1226" t="s">
-        <v>973</v>
-      </c>
-      <c r="Z8" s="1227" t="s">
-        <v>974</v>
+      <c r="Y8" s="1286" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Z8" s="1287" t="s">
+        <v>1016</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -26642,8 +27854,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1229" t="s">
-        <v>951</v>
+      <c r="B9" s="1289" t="s">
+        <v>996</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -26694,20 +27906,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="1228" t="s">
-        <v>975</v>
+      <c r="V9" s="1288" t="s">
+        <v>1017</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="X9" s="1230" t="s">
-        <v>976</v>
-      </c>
-      <c r="Y9" s="1231" t="s">
-        <v>977</v>
-      </c>
-      <c r="Z9" s="1232" t="s">
-        <v>978</v>
+      <c r="X9" s="1290" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Y9" s="1291" t="s">
+        <v>1019</v>
+      </c>
+      <c r="Z9" s="1292" t="s">
+        <v>1020</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>144</v>
@@ -26728,8 +27940,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1234" t="s">
-        <v>951</v>
+      <c r="B10" s="1294" t="s">
+        <v>996</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -26778,20 +27990,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="1233" t="s">
-        <v>979</v>
-      </c>
-      <c r="W10" s="1238" t="s">
-        <v>983</v>
-      </c>
-      <c r="X10" s="1235" t="s">
-        <v>980</v>
-      </c>
-      <c r="Y10" s="1236" t="s">
-        <v>981</v>
-      </c>
-      <c r="Z10" s="1237" t="s">
-        <v>982</v>
+      <c r="V10" s="1293" t="s">
+        <v>1021</v>
+      </c>
+      <c r="W10" s="1298" t="s">
+        <v>1025</v>
+      </c>
+      <c r="X10" s="1295" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Y10" s="1296" t="s">
+        <v>1023</v>
+      </c>
+      <c r="Z10" s="1297" t="s">
+        <v>1024</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>
@@ -26810,8 +28022,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1240" t="s">
-        <v>951</v>
+      <c r="B11" s="1300" t="s">
+        <v>996</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -26862,20 +28074,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="1239" t="s">
-        <v>984</v>
+      <c r="V11" s="1299" t="s">
+        <v>1026</v>
       </c>
       <c r="W11" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="X11" s="1241" t="s">
-        <v>985</v>
-      </c>
-      <c r="Y11" s="1242" t="s">
-        <v>986</v>
-      </c>
-      <c r="Z11" s="1243" t="s">
-        <v>987</v>
+      <c r="X11" s="1301" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Y11" s="1302" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Z11" s="1303" t="s">
+        <v>1029</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>144</v>
@@ -26896,8 +28108,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1245" t="s">
-        <v>951</v>
+      <c r="B12" s="1305" t="s">
+        <v>996</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -26948,20 +28160,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="1244" t="s">
-        <v>988</v>
+      <c r="V12" s="1304" t="s">
+        <v>1030</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="X12" s="1246" t="s">
-        <v>694</v>
-      </c>
-      <c r="Y12" s="1247" t="s">
-        <v>989</v>
-      </c>
-      <c r="Z12" s="1248" t="s">
-        <v>990</v>
+      <c r="X12" s="1306" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Y12" s="1307" t="s">
+        <v>1032</v>
+      </c>
+      <c r="Z12" s="1308" t="s">
+        <v>1033</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -26982,8 +28194,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1250" t="s">
-        <v>951</v>
+      <c r="B13" s="1310" t="s">
+        <v>996</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -27032,20 +28244,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="1249" t="s">
-        <v>991</v>
-      </c>
-      <c r="W13" s="1254" t="s">
-        <v>994</v>
-      </c>
-      <c r="X13" s="1251" t="s">
-        <v>698</v>
-      </c>
-      <c r="Y13" s="1252" t="s">
-        <v>992</v>
-      </c>
-      <c r="Z13" s="1253" t="s">
-        <v>993</v>
+      <c r="V13" s="1309" t="s">
+        <v>1034</v>
+      </c>
+      <c r="W13" s="1314" t="s">
+        <v>1038</v>
+      </c>
+      <c r="X13" s="1311" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Y13" s="1312" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Z13" s="1313" t="s">
+        <v>1037</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="1047">
   <si>
     <t>shipmentType</t>
   </si>
@@ -3144,6 +3144,30 @@
   </si>
   <si>
     <t>51530505</t>
+  </si>
+  <si>
+    <t>51530843</t>
+  </si>
+  <si>
+    <t>02-12-2022</t>
+  </si>
+  <si>
+    <t>1Z44R7R60394589476</t>
+  </si>
+  <si>
+    <t>FCUPSG1012088</t>
+  </si>
+  <si>
+    <t>51530845</t>
+  </si>
+  <si>
+    <t>51530846</t>
+  </si>
+  <si>
+    <t>FCT942085809463361536</t>
+  </si>
+  <si>
+    <t>CEV1003987</t>
   </si>
 </sst>
 </file>
@@ -3179,7 +3203,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2532">
+  <fills count="2554">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15836,8 +15860,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2528">
+  <borders count="2550">
     <border>
       <left/>
       <right/>
@@ -25241,6 +25375,83 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -25249,7 +25460,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1315">
+  <cellXfs count="1326">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -26564,7 +26775,18 @@
     <xf applyBorder="true" applyFill="true" borderId="2521" fillId="2525" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="2523" fillId="2527" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="2525" fillId="2529" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2531" borderId="2527" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="2527" fillId="2531" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2529" fillId="2533" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2531" fillId="2535" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2533" fillId="2537" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2535" fillId="2539" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2537" fillId="2541" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2539" fillId="2543" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2541" fillId="2545" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2543" fillId="2547" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2545" fillId="2549" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2547" fillId="2551" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2553" borderId="2549" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -27300,8 +27522,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1256" t="s">
-        <v>996</v>
+      <c r="B3" s="1322" t="s">
+        <v>1040</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -27354,20 +27576,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="1255" t="s">
-        <v>995</v>
+      <c r="V3" s="1321" t="s">
+        <v>1044</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="X3" s="1257" t="s">
+      <c r="X3" s="1323" t="s">
         <v>400</v>
       </c>
-      <c r="Y3" s="1258" t="s">
-        <v>997</v>
-      </c>
-      <c r="Z3" s="1259" t="s">
-        <v>998</v>
+      <c r="Y3" s="1324" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Z3" s="1325" t="s">
+        <v>1046</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -27940,8 +28162,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1294" t="s">
-        <v>996</v>
+      <c r="B10" s="1316" t="s">
+        <v>1040</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -27990,20 +28212,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="1293" t="s">
-        <v>1021</v>
-      </c>
-      <c r="W10" s="1298" t="s">
-        <v>1025</v>
-      </c>
-      <c r="X10" s="1295" t="s">
+      <c r="V10" s="1315" t="s">
+        <v>1039</v>
+      </c>
+      <c r="W10" s="1320" t="s">
+        <v>1043</v>
+      </c>
+      <c r="X10" s="1317" t="s">
         <v>1022</v>
       </c>
-      <c r="Y10" s="1296" t="s">
-        <v>1023</v>
-      </c>
-      <c r="Z10" s="1297" t="s">
-        <v>1024</v>
+      <c r="Y10" s="1318" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Z10" s="1319" t="s">
+        <v>1042</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>

--- a/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="1185">
   <si>
     <t>shipmentType</t>
   </si>
@@ -3168,6 +3168,420 @@
   </si>
   <si>
     <t>CEV1003987</t>
+  </si>
+  <si>
+    <t>51531633</t>
+  </si>
+  <si>
+    <t>02-21-2022</t>
+  </si>
+  <si>
+    <t>FCT945257199469330432</t>
+  </si>
+  <si>
+    <t>CEV1004054</t>
+  </si>
+  <si>
+    <t>51531636</t>
+  </si>
+  <si>
+    <t>FCT945259475315458048</t>
+  </si>
+  <si>
+    <t>CEV1004055</t>
+  </si>
+  <si>
+    <t>51531639</t>
+  </si>
+  <si>
+    <t>FCT945261742764589056</t>
+  </si>
+  <si>
+    <t>CEV1004056</t>
+  </si>
+  <si>
+    <t>51531641</t>
+  </si>
+  <si>
+    <t>51531642</t>
+  </si>
+  <si>
+    <t>FCT945264660561526784</t>
+  </si>
+  <si>
+    <t>CEV1004058</t>
+  </si>
+  <si>
+    <t>51531644</t>
+  </si>
+  <si>
+    <t>51531645</t>
+  </si>
+  <si>
+    <t>FCT945267441120837632</t>
+  </si>
+  <si>
+    <t>CEV1004060</t>
+  </si>
+  <si>
+    <t>51531648</t>
+  </si>
+  <si>
+    <t>51531651</t>
+  </si>
+  <si>
+    <t>FCT945270051349463040</t>
+  </si>
+  <si>
+    <t>CEV1004062</t>
+  </si>
+  <si>
+    <t>51531659</t>
+  </si>
+  <si>
+    <t>$63.34</t>
+  </si>
+  <si>
+    <t>1Z44R7R60391177505</t>
+  </si>
+  <si>
+    <t>FCUPSG1012130</t>
+  </si>
+  <si>
+    <t>51531668</t>
+  </si>
+  <si>
+    <t>$81.51</t>
+  </si>
+  <si>
+    <t>1Z44R7R60397589943</t>
+  </si>
+  <si>
+    <t>FCUPSG1012131</t>
+  </si>
+  <si>
+    <t>51531670</t>
+  </si>
+  <si>
+    <t>51531671</t>
+  </si>
+  <si>
+    <t>$153.68</t>
+  </si>
+  <si>
+    <t>1Z44R7R60398317154</t>
+  </si>
+  <si>
+    <t>FCUPSG1012133</t>
+  </si>
+  <si>
+    <t>51531677</t>
+  </si>
+  <si>
+    <t>$106.14</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW97124562</t>
+  </si>
+  <si>
+    <t>FCUPSG1012134</t>
+  </si>
+  <si>
+    <t>51531680</t>
+  </si>
+  <si>
+    <t>$131.41</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW94697548</t>
+  </si>
+  <si>
+    <t>FCUPSG1012135</t>
+  </si>
+  <si>
+    <t>51531682</t>
+  </si>
+  <si>
+    <t>51532184</t>
+  </si>
+  <si>
+    <t>02-25-2022</t>
+  </si>
+  <si>
+    <t>$1,081.61</t>
+  </si>
+  <si>
+    <t>FCT946656677929680896</t>
+  </si>
+  <si>
+    <t>FCABF1006933</t>
+  </si>
+  <si>
+    <t>51532187</t>
+  </si>
+  <si>
+    <t>$971.15</t>
+  </si>
+  <si>
+    <t>FCT946661066522230784</t>
+  </si>
+  <si>
+    <t>CEV1004104</t>
+  </si>
+  <si>
+    <t>51532190</t>
+  </si>
+  <si>
+    <t>$1,117.34</t>
+  </si>
+  <si>
+    <t>FCT946663319115137024</t>
+  </si>
+  <si>
+    <t>CEV1004105</t>
+  </si>
+  <si>
+    <t>51532193</t>
+  </si>
+  <si>
+    <t>$2,775.64</t>
+  </si>
+  <si>
+    <t>FCT946665682584469504</t>
+  </si>
+  <si>
+    <t>CEV1004106</t>
+  </si>
+  <si>
+    <t>51532201</t>
+  </si>
+  <si>
+    <t>51532203</t>
+  </si>
+  <si>
+    <t>FCT946668703234129920</t>
+  </si>
+  <si>
+    <t>CEV1004108</t>
+  </si>
+  <si>
+    <t>51532208</t>
+  </si>
+  <si>
+    <t>51532210</t>
+  </si>
+  <si>
+    <t>FCT946671567918596096</t>
+  </si>
+  <si>
+    <t>CEV1004110</t>
+  </si>
+  <si>
+    <t>51532215</t>
+  </si>
+  <si>
+    <t>51532216</t>
+  </si>
+  <si>
+    <t>$609.48</t>
+  </si>
+  <si>
+    <t>FCT946674028557369344</t>
+  </si>
+  <si>
+    <t>CEV1004112</t>
+  </si>
+  <si>
+    <t>51532219</t>
+  </si>
+  <si>
+    <t>$61.13</t>
+  </si>
+  <si>
+    <t>1Z44R7R60391524657</t>
+  </si>
+  <si>
+    <t>FCUPSG1012156</t>
+  </si>
+  <si>
+    <t>51532222</t>
+  </si>
+  <si>
+    <t>$77.11</t>
+  </si>
+  <si>
+    <t>1Z44R7R60395578226</t>
+  </si>
+  <si>
+    <t>FCUPSG1012157</t>
+  </si>
+  <si>
+    <t>51532228</t>
+  </si>
+  <si>
+    <t>51532229</t>
+  </si>
+  <si>
+    <t>$151.47</t>
+  </si>
+  <si>
+    <t>1Z44R7R60399172040</t>
+  </si>
+  <si>
+    <t>FCUPSG1012159</t>
+  </si>
+  <si>
+    <t>51532234</t>
+  </si>
+  <si>
+    <t>$103.93</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW97901258</t>
+  </si>
+  <si>
+    <t>FCUPSG1012160</t>
+  </si>
+  <si>
+    <t>51532237</t>
+  </si>
+  <si>
+    <t>$127.01</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW94417868</t>
+  </si>
+  <si>
+    <t>FCUPSG1012161</t>
+  </si>
+  <si>
+    <t>51532241</t>
+  </si>
+  <si>
+    <t>51532471</t>
+  </si>
+  <si>
+    <t>02-27-2022</t>
+  </si>
+  <si>
+    <t>FCT947489860053106688</t>
+  </si>
+  <si>
+    <t>FCABF1006936</t>
+  </si>
+  <si>
+    <t>51532474</t>
+  </si>
+  <si>
+    <t>FCT947494038821404672</t>
+  </si>
+  <si>
+    <t>CEV1004117</t>
+  </si>
+  <si>
+    <t>51532477</t>
+  </si>
+  <si>
+    <t>FCT947496313090473984</t>
+  </si>
+  <si>
+    <t>CEV1004118</t>
+  </si>
+  <si>
+    <t>51532480</t>
+  </si>
+  <si>
+    <t>FCT947498660080386048</t>
+  </si>
+  <si>
+    <t>CEV1004119</t>
+  </si>
+  <si>
+    <t>51532482</t>
+  </si>
+  <si>
+    <t>51532483</t>
+  </si>
+  <si>
+    <t>FCT947501699419865088</t>
+  </si>
+  <si>
+    <t>CEV1004121</t>
+  </si>
+  <si>
+    <t>51532485</t>
+  </si>
+  <si>
+    <t>51532486</t>
+  </si>
+  <si>
+    <t>FCT947504584765472768</t>
+  </si>
+  <si>
+    <t>CEV1004123</t>
+  </si>
+  <si>
+    <t>51532488</t>
+  </si>
+  <si>
+    <t>51532489</t>
+  </si>
+  <si>
+    <t>FCT947507018397122560</t>
+  </si>
+  <si>
+    <t>CEV1004125</t>
+  </si>
+  <si>
+    <t>51532493</t>
+  </si>
+  <si>
+    <t>1Z44R7R60392533047</t>
+  </si>
+  <si>
+    <t>FCUPSG1012167</t>
+  </si>
+  <si>
+    <t>51532496</t>
+  </si>
+  <si>
+    <t>1Z44R7R60393111054</t>
+  </si>
+  <si>
+    <t>FCUPSG1012168</t>
+  </si>
+  <si>
+    <t>51532498</t>
+  </si>
+  <si>
+    <t>51532499</t>
+  </si>
+  <si>
+    <t>1Z44R7R60392380677</t>
+  </si>
+  <si>
+    <t>FCUPSG1012170</t>
+  </si>
+  <si>
+    <t>51532502</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW99535650</t>
+  </si>
+  <si>
+    <t>FCUPSG1012171</t>
+  </si>
+  <si>
+    <t>51532505</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW93295091</t>
+  </si>
+  <si>
+    <t>FCUPSG1012172</t>
+  </si>
+  <si>
+    <t>51532507</t>
   </si>
 </sst>
 </file>
@@ -3203,7 +3617,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2554">
+  <fills count="2934">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15970,8 +16384,1908 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2550">
+  <borders count="2930">
     <border>
       <left/>
       <right/>
@@ -25452,6 +27766,1336 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -25460,7 +29104,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1326">
+  <cellXfs count="1516">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -26786,7 +30430,197 @@
     <xf applyBorder="true" applyFill="true" borderId="2543" fillId="2547" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="2545" fillId="2549" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="2547" fillId="2551" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2553" borderId="2549" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="2549" fillId="2553" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2551" fillId="2555" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2553" fillId="2557" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2555" fillId="2559" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2557" fillId="2561" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2559" fillId="2563" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2561" fillId="2565" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2563" fillId="2567" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2565" fillId="2569" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2567" fillId="2571" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2569" fillId="2573" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2571" fillId="2575" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2573" fillId="2577" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2575" fillId="2579" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2577" fillId="2581" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2579" fillId="2583" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2581" fillId="2585" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2583" fillId="2587" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2585" fillId="2589" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2587" fillId="2591" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2589" fillId="2593" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2591" fillId="2595" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2593" fillId="2597" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2595" fillId="2599" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2597" fillId="2601" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2599" fillId="2603" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2601" fillId="2605" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2603" fillId="2607" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2605" fillId="2609" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2607" fillId="2611" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2609" fillId="2613" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2611" fillId="2615" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2613" fillId="2617" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2615" fillId="2619" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2617" fillId="2621" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2619" fillId="2623" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2621" fillId="2625" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2623" fillId="2627" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2625" fillId="2629" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2627" fillId="2631" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2629" fillId="2633" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2631" fillId="2635" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2633" fillId="2637" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2635" fillId="2639" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2637" fillId="2641" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2639" fillId="2643" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2641" fillId="2645" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2643" fillId="2647" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2645" fillId="2649" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2647" fillId="2651" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2649" fillId="2653" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2651" fillId="2655" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2653" fillId="2657" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2655" fillId="2659" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2657" fillId="2661" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2659" fillId="2663" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2661" fillId="2665" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2663" fillId="2667" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2665" fillId="2669" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2667" fillId="2671" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2669" fillId="2673" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2671" fillId="2675" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2673" fillId="2677" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2675" fillId="2679" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2677" fillId="2681" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2679" fillId="2683" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2681" fillId="2685" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2683" fillId="2687" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2685" fillId="2689" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2687" fillId="2691" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2689" fillId="2693" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2691" fillId="2695" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2693" fillId="2697" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2695" fillId="2699" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2697" fillId="2701" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2699" fillId="2703" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2701" fillId="2705" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2703" fillId="2707" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2705" fillId="2709" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2707" fillId="2711" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2709" fillId="2713" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2711" fillId="2715" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2713" fillId="2717" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2715" fillId="2719" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2717" fillId="2721" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2719" fillId="2723" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2721" fillId="2725" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2723" fillId="2727" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2725" fillId="2729" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2727" fillId="2731" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2729" fillId="2733" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2731" fillId="2735" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2733" fillId="2737" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2735" fillId="2739" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2737" fillId="2741" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2739" fillId="2743" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2741" fillId="2745" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2743" fillId="2747" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2745" fillId="2749" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2747" fillId="2751" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2749" fillId="2753" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2751" fillId="2755" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2753" fillId="2757" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2755" fillId="2759" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2757" fillId="2761" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2759" fillId="2763" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2761" fillId="2765" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2763" fillId="2767" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2765" fillId="2769" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2767" fillId="2771" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2769" fillId="2773" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2771" fillId="2775" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2773" fillId="2777" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2775" fillId="2779" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2777" fillId="2781" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2779" fillId="2783" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2781" fillId="2785" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2783" fillId="2787" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2785" fillId="2789" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2787" fillId="2791" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2789" fillId="2793" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2791" fillId="2795" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2793" fillId="2797" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2795" fillId="2799" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2797" fillId="2801" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2799" fillId="2803" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2801" fillId="2805" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2803" fillId="2807" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2805" fillId="2809" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2807" fillId="2811" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2809" fillId="2813" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2811" fillId="2815" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2813" fillId="2817" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2815" fillId="2819" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2817" fillId="2821" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2819" fillId="2823" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2821" fillId="2825" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2823" fillId="2827" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2825" fillId="2829" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2827" fillId="2831" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2829" fillId="2833" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2831" fillId="2835" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2833" fillId="2837" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2835" fillId="2839" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2837" fillId="2841" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2839" fillId="2843" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2841" fillId="2845" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2843" fillId="2847" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2845" fillId="2849" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2847" fillId="2851" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2849" fillId="2853" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2851" fillId="2855" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2853" fillId="2857" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2855" fillId="2859" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2857" fillId="2861" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2859" fillId="2863" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2861" fillId="2865" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2863" fillId="2867" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2865" fillId="2869" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2867" fillId="2871" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2869" fillId="2873" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2871" fillId="2875" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2873" fillId="2877" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2875" fillId="2879" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2877" fillId="2881" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2879" fillId="2883" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2881" fillId="2885" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2883" fillId="2887" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2885" fillId="2889" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2887" fillId="2891" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2889" fillId="2893" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2891" fillId="2895" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2893" fillId="2897" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2895" fillId="2899" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2897" fillId="2901" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2899" fillId="2903" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2901" fillId="2905" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2903" fillId="2907" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2905" fillId="2909" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2907" fillId="2911" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2909" fillId="2913" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2911" fillId="2915" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2913" fillId="2917" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2915" fillId="2919" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2917" fillId="2921" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2919" fillId="2923" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2921" fillId="2925" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2923" fillId="2927" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2925" fillId="2929" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2927" fillId="2931" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2933" borderId="2929" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -27434,8 +31268,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="1190" t="s">
-        <v>951</v>
+      <c r="B2" s="1452" t="s">
+        <v>1144</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -27486,20 +31320,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="1189" t="s">
-        <v>950</v>
+      <c r="V2" s="1451" t="s">
+        <v>1143</v>
       </c>
       <c r="W2" s="1194" t="s">
         <v>953</v>
       </c>
-      <c r="X2" s="1191" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y2" s="1192" t="s">
-        <v>952</v>
-      </c>
-      <c r="Z2" s="1193" t="s">
-        <v>952</v>
+      <c r="X2" s="1453" t="s">
+        <v>1093</v>
+      </c>
+      <c r="Y2" s="1454" t="s">
+        <v>1145</v>
+      </c>
+      <c r="Z2" s="1455" t="s">
+        <v>1146</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>145</v>
@@ -27522,8 +31356,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1322" t="s">
-        <v>1040</v>
+      <c r="B3" s="1457" t="s">
+        <v>1144</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -27576,20 +31410,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="1321" t="s">
-        <v>1044</v>
+      <c r="V3" s="1456" t="s">
+        <v>1147</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="X3" s="1323" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y3" s="1324" t="s">
-        <v>1045</v>
-      </c>
-      <c r="Z3" s="1325" t="s">
-        <v>1046</v>
+      <c r="X3" s="1458" t="s">
+        <v>1097</v>
+      </c>
+      <c r="Y3" s="1459" t="s">
+        <v>1148</v>
+      </c>
+      <c r="Z3" s="1460" t="s">
+        <v>1149</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -27618,8 +31452,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="1261" t="s">
-        <v>996</v>
+      <c r="B4" s="1462" t="s">
+        <v>1144</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -27670,20 +31504,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="1260" t="s">
-        <v>999</v>
+      <c r="V4" s="1461" t="s">
+        <v>1150</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="X4" s="1262" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y4" s="1263" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Z4" s="1264" t="s">
-        <v>1001</v>
+      <c r="X4" s="1463" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Y4" s="1464" t="s">
+        <v>1151</v>
+      </c>
+      <c r="Z4" s="1465" t="s">
+        <v>1152</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -27710,8 +31544,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="1266" t="s">
-        <v>996</v>
+      <c r="B5" s="1467" t="s">
+        <v>1144</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -27762,20 +31596,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="1265" t="s">
-        <v>1002</v>
-      </c>
-      <c r="W5" s="1270" t="s">
-        <v>1005</v>
-      </c>
-      <c r="X5" s="1267" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y5" s="1268" t="s">
-        <v>1003</v>
-      </c>
-      <c r="Z5" s="1269" t="s">
-        <v>1004</v>
+      <c r="V5" s="1466" t="s">
+        <v>1153</v>
+      </c>
+      <c r="W5" s="1471" t="s">
+        <v>1156</v>
+      </c>
+      <c r="X5" s="1468" t="s">
+        <v>1105</v>
+      </c>
+      <c r="Y5" s="1469" t="s">
+        <v>1154</v>
+      </c>
+      <c r="Z5" s="1470" t="s">
+        <v>1155</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -27806,8 +31640,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="1272" t="s">
-        <v>996</v>
+      <c r="B6" s="1473" t="s">
+        <v>1144</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -27858,20 +31692,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="1271" t="s">
-        <v>1006</v>
-      </c>
-      <c r="W6" s="1276" t="s">
-        <v>1009</v>
-      </c>
-      <c r="X6" s="1273" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y6" s="1274" t="s">
-        <v>1007</v>
-      </c>
-      <c r="Z6" s="1275" t="s">
-        <v>1008</v>
+      <c r="V6" s="1472" t="s">
+        <v>1157</v>
+      </c>
+      <c r="W6" s="1477" t="s">
+        <v>1160</v>
+      </c>
+      <c r="X6" s="1474" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Y6" s="1475" t="s">
+        <v>1158</v>
+      </c>
+      <c r="Z6" s="1476" t="s">
+        <v>1159</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -27898,8 +31732,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="1278" t="s">
-        <v>996</v>
+      <c r="B7" s="1479" t="s">
+        <v>1144</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -27948,20 +31782,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="1277" t="s">
-        <v>1010</v>
-      </c>
-      <c r="W7" s="1282" t="s">
-        <v>1013</v>
-      </c>
-      <c r="X7" s="1279" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y7" s="1280" t="s">
-        <v>1011</v>
-      </c>
-      <c r="Z7" s="1281" t="s">
-        <v>1012</v>
+      <c r="V7" s="1478" t="s">
+        <v>1161</v>
+      </c>
+      <c r="W7" s="1483" t="s">
+        <v>1164</v>
+      </c>
+      <c r="X7" s="1480" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Y7" s="1481" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Z7" s="1482" t="s">
+        <v>1163</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -27984,8 +31818,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="1284" t="s">
-        <v>996</v>
+      <c r="B8" s="1485" t="s">
+        <v>1144</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -28036,20 +31870,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="1283" t="s">
-        <v>1014</v>
+      <c r="V8" s="1484" t="s">
+        <v>1165</v>
       </c>
       <c r="W8" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="X8" s="1285" t="s">
-        <v>422</v>
-      </c>
-      <c r="Y8" s="1286" t="s">
-        <v>1015</v>
-      </c>
-      <c r="Z8" s="1287" t="s">
-        <v>1016</v>
+      <c r="X8" s="1486" t="s">
+        <v>1118</v>
+      </c>
+      <c r="Y8" s="1487" t="s">
+        <v>1166</v>
+      </c>
+      <c r="Z8" s="1488" t="s">
+        <v>1167</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -28076,8 +31910,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1289" t="s">
-        <v>996</v>
+      <c r="B9" s="1490" t="s">
+        <v>1144</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -28128,20 +31962,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="1288" t="s">
-        <v>1017</v>
+      <c r="V9" s="1489" t="s">
+        <v>1168</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="X9" s="1290" t="s">
-        <v>1018</v>
-      </c>
-      <c r="Y9" s="1291" t="s">
-        <v>1019</v>
-      </c>
-      <c r="Z9" s="1292" t="s">
-        <v>1020</v>
+      <c r="X9" s="1491" t="s">
+        <v>1122</v>
+      </c>
+      <c r="Y9" s="1492" t="s">
+        <v>1169</v>
+      </c>
+      <c r="Z9" s="1493" t="s">
+        <v>1170</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>144</v>
@@ -28162,8 +31996,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1316" t="s">
-        <v>1040</v>
+      <c r="B10" s="1495" t="s">
+        <v>1144</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -28212,20 +32046,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="1315" t="s">
-        <v>1039</v>
-      </c>
-      <c r="W10" s="1320" t="s">
-        <v>1043</v>
-      </c>
-      <c r="X10" s="1317" t="s">
-        <v>1022</v>
-      </c>
-      <c r="Y10" s="1318" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Z10" s="1319" t="s">
-        <v>1042</v>
+      <c r="V10" s="1494" t="s">
+        <v>1171</v>
+      </c>
+      <c r="W10" s="1499" t="s">
+        <v>1174</v>
+      </c>
+      <c r="X10" s="1496" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Y10" s="1497" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Z10" s="1498" t="s">
+        <v>1173</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>
@@ -28244,8 +32078,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1300" t="s">
-        <v>996</v>
+      <c r="B11" s="1501" t="s">
+        <v>1144</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -28296,20 +32130,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="1299" t="s">
-        <v>1026</v>
+      <c r="V11" s="1500" t="s">
+        <v>1175</v>
       </c>
       <c r="W11" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="X11" s="1301" t="s">
-        <v>1027</v>
-      </c>
-      <c r="Y11" s="1302" t="s">
-        <v>1028</v>
-      </c>
-      <c r="Z11" s="1303" t="s">
-        <v>1029</v>
+      <c r="X11" s="1502" t="s">
+        <v>1131</v>
+      </c>
+      <c r="Y11" s="1503" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Z11" s="1504" t="s">
+        <v>1177</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>144</v>
@@ -28330,8 +32164,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1305" t="s">
-        <v>996</v>
+      <c r="B12" s="1506" t="s">
+        <v>1144</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -28382,20 +32216,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="1304" t="s">
-        <v>1030</v>
+      <c r="V12" s="1505" t="s">
+        <v>1178</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="X12" s="1306" t="s">
-        <v>1031</v>
-      </c>
-      <c r="Y12" s="1307" t="s">
-        <v>1032</v>
-      </c>
-      <c r="Z12" s="1308" t="s">
-        <v>1033</v>
+      <c r="X12" s="1507" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Y12" s="1508" t="s">
+        <v>1179</v>
+      </c>
+      <c r="Z12" s="1509" t="s">
+        <v>1180</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -28416,8 +32250,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1310" t="s">
-        <v>996</v>
+      <c r="B13" s="1511" t="s">
+        <v>1144</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -28466,20 +32300,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="1309" t="s">
-        <v>1034</v>
-      </c>
-      <c r="W13" s="1314" t="s">
-        <v>1038</v>
-      </c>
-      <c r="X13" s="1311" t="s">
-        <v>1035</v>
-      </c>
-      <c r="Y13" s="1312" t="s">
-        <v>1036</v>
-      </c>
-      <c r="Z13" s="1313" t="s">
-        <v>1037</v>
+      <c r="V13" s="1510" t="s">
+        <v>1181</v>
+      </c>
+      <c r="W13" s="1515" t="s">
+        <v>1184</v>
+      </c>
+      <c r="X13" s="1512" t="s">
+        <v>1139</v>
+      </c>
+      <c r="Y13" s="1513" t="s">
+        <v>1182</v>
+      </c>
+      <c r="Z13" s="1514" t="s">
+        <v>1183</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\testdata\FCfiles\qa\QuickQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1838D49-8746-45DA-B75A-C5358E258E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{6BF43B03-35F0-4B36-95F6-381682EC1D7D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="589" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" tabRatio="589" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="CreateAccount" sheetId="7" r:id="rId1"/>
-    <sheet name="ShipmentInformation" sheetId="6" r:id="rId2"/>
-    <sheet name="Input" sheetId="1" r:id="rId3"/>
+    <sheet name="CreateAccount" r:id="rId1" sheetId="7"/>
+    <sheet name="ShipmentInformation" r:id="rId2" sheetId="6"/>
+    <sheet name="Input" r:id="rId3" sheetId="1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="276">
   <si>
     <t>shipmentType</t>
   </si>
@@ -464,9 +464,6 @@
     <t>Ups</t>
   </si>
   <si>
-    <t>BTX Global Logistics</t>
-  </si>
-  <si>
     <t>51499551</t>
   </si>
   <si>
@@ -494,12 +491,6 @@
     <t>$987.51</t>
   </si>
   <si>
-    <t>$1,126.88</t>
-  </si>
-  <si>
-    <t>$1,141.88</t>
-  </si>
-  <si>
     <t>51530470</t>
   </si>
   <si>
@@ -512,173 +503,366 @@
     <t>CEV1003945</t>
   </si>
   <si>
-    <t>$2,775.64</t>
-  </si>
-  <si>
-    <t>$609.48</t>
-  </si>
-  <si>
-    <t>$61.13</t>
-  </si>
-  <si>
-    <t>$77.11</t>
-  </si>
-  <si>
-    <t>$151.47</t>
-  </si>
-  <si>
-    <t>$103.93</t>
-  </si>
-  <si>
-    <t>$127.01</t>
-  </si>
-  <si>
-    <t>02-27-2022</t>
-  </si>
-  <si>
-    <t>51532480</t>
-  </si>
-  <si>
-    <t>FCT947498660080386048</t>
-  </si>
-  <si>
-    <t>CEV1004119</t>
-  </si>
-  <si>
-    <t>51532488</t>
-  </si>
-  <si>
-    <t>51532489</t>
-  </si>
-  <si>
-    <t>FCT947507018397122560</t>
-  </si>
-  <si>
-    <t>CEV1004125</t>
-  </si>
-  <si>
-    <t>51532493</t>
-  </si>
-  <si>
-    <t>1Z44R7R60392533047</t>
-  </si>
-  <si>
-    <t>FCUPSG1012167</t>
-  </si>
-  <si>
-    <t>51532496</t>
-  </si>
-  <si>
-    <t>1Z44R7R60393111054</t>
-  </si>
-  <si>
-    <t>FCUPSG1012168</t>
-  </si>
-  <si>
-    <t>51532498</t>
-  </si>
-  <si>
-    <t>51532499</t>
-  </si>
-  <si>
-    <t>1Z44R7R60392380677</t>
-  </si>
-  <si>
-    <t>FCUPSG1012170</t>
-  </si>
-  <si>
-    <t>51532502</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW99535650</t>
-  </si>
-  <si>
-    <t>FCUPSG1012171</t>
-  </si>
-  <si>
-    <t>51532505</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW93295091</t>
-  </si>
-  <si>
-    <t>FCUPSG1012172</t>
-  </si>
-  <si>
-    <t>51532507</t>
-  </si>
-  <si>
-    <t>51533150</t>
-  </si>
-  <si>
-    <t>03-06-2022</t>
-  </si>
-  <si>
-    <t>$1,111.92</t>
-  </si>
-  <si>
-    <t>FCT949883486427152384</t>
-  </si>
-  <si>
-    <t>FCABF1006954</t>
-  </si>
-  <si>
-    <t>51533152</t>
-  </si>
-  <si>
-    <t>51533153</t>
-  </si>
-  <si>
-    <t>FCT949886255288549376</t>
-  </si>
-  <si>
-    <t>CEV1004164</t>
-  </si>
-  <si>
-    <t>51533156</t>
-  </si>
-  <si>
-    <t>FCT949888585195061248</t>
-  </si>
-  <si>
-    <t>CEV1004165</t>
-  </si>
-  <si>
-    <t>51533161</t>
-  </si>
-  <si>
-    <t>51533162</t>
-  </si>
-  <si>
-    <t>FCT949894337175486464</t>
-  </si>
-  <si>
-    <t>CEV1004167</t>
-  </si>
-  <si>
-    <t>51533164</t>
-  </si>
-  <si>
-    <t>51533165</t>
-  </si>
-  <si>
-    <t>FCT949897681214373888</t>
-  </si>
-  <si>
-    <t>CEV1004169</t>
-  </si>
-  <si>
     <t>TestOrder13</t>
   </si>
   <si>
     <t>FC Test Carrier</t>
+  </si>
+  <si>
+    <t>05-05-2022</t>
+  </si>
+  <si>
+    <t>$856.00</t>
+  </si>
+  <si>
+    <t>$995.63</t>
+  </si>
+  <si>
+    <t>$2,656.90</t>
+  </si>
+  <si>
+    <t>$1,010.63</t>
+  </si>
+  <si>
+    <t>51538575</t>
+  </si>
+  <si>
+    <t>CEV1004414</t>
+  </si>
+  <si>
+    <t>51538588</t>
+  </si>
+  <si>
+    <t>CEV1004415</t>
+  </si>
+  <si>
+    <t>51538597</t>
+  </si>
+  <si>
+    <t>CEV1004416</t>
+  </si>
+  <si>
+    <t>51538605</t>
+  </si>
+  <si>
+    <t>51538606</t>
+  </si>
+  <si>
+    <t>CEV1004419</t>
+  </si>
+  <si>
+    <t>51538610</t>
+  </si>
+  <si>
+    <t>51538614</t>
+  </si>
+  <si>
+    <t>CEV1004421</t>
+  </si>
+  <si>
+    <t>51538618</t>
+  </si>
+  <si>
+    <t>51538620</t>
+  </si>
+  <si>
+    <t>$486.87</t>
+  </si>
+  <si>
+    <t>CEV1004423</t>
+  </si>
+  <si>
+    <t>51538623</t>
+  </si>
+  <si>
+    <t>$65.64</t>
+  </si>
+  <si>
+    <t>1Z44R7R60390204610</t>
+  </si>
+  <si>
+    <t>FCUPSG1012393</t>
+  </si>
+  <si>
+    <t>51538628</t>
+  </si>
+  <si>
+    <t>$84.44</t>
+  </si>
+  <si>
+    <t>1Z44R7R60390329450</t>
+  </si>
+  <si>
+    <t>FCUPSG1012394</t>
+  </si>
+  <si>
+    <t>51538630</t>
+  </si>
+  <si>
+    <t>51538631</t>
+  </si>
+  <si>
+    <t>$158.63</t>
+  </si>
+  <si>
+    <t>1Z44R7R60393992719</t>
+  </si>
+  <si>
+    <t>FCUPSG1012396</t>
+  </si>
+  <si>
+    <t>51538634</t>
+  </si>
+  <si>
+    <t>$109.88</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW90725550</t>
+  </si>
+  <si>
+    <t>FCUPSG1012397</t>
+  </si>
+  <si>
+    <t>51538637</t>
+  </si>
+  <si>
+    <t>$136.05</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW93075177</t>
+  </si>
+  <si>
+    <t>FCUPSG1012398</t>
+  </si>
+  <si>
+    <t>51538639</t>
+  </si>
+  <si>
+    <t>51538942</t>
+  </si>
+  <si>
+    <t>05-08-2022</t>
+  </si>
+  <si>
+    <t>$534.57</t>
+  </si>
+  <si>
+    <t>361U647740</t>
+  </si>
+  <si>
+    <t>FCPBID1001646</t>
+  </si>
+  <si>
+    <t>51538947</t>
+  </si>
+  <si>
+    <t>51538949</t>
+  </si>
+  <si>
+    <t>$508.69</t>
+  </si>
+  <si>
+    <t>CEV1004437</t>
+  </si>
+  <si>
+    <t>51538952</t>
+  </si>
+  <si>
+    <t>51538953</t>
+  </si>
+  <si>
+    <t>$858.45</t>
+  </si>
+  <si>
+    <t>CEV1004439</t>
+  </si>
+  <si>
+    <t>51538957</t>
+  </si>
+  <si>
+    <t>$65.97</t>
+  </si>
+  <si>
+    <t>1Z44R7R60392501634</t>
+  </si>
+  <si>
+    <t>FCUPSG1012420</t>
+  </si>
+  <si>
+    <t>51538968</t>
+  </si>
+  <si>
+    <t>51538969</t>
+  </si>
+  <si>
+    <t>$85.12</t>
+  </si>
+  <si>
+    <t>1Z44R7R60393028449</t>
+  </si>
+  <si>
+    <t>FCUPSG1012422</t>
+  </si>
+  <si>
+    <t>51538971</t>
+  </si>
+  <si>
+    <t>51538973</t>
+  </si>
+  <si>
+    <t>$158.96</t>
+  </si>
+  <si>
+    <t>1Z44R7R60392134451</t>
+  </si>
+  <si>
+    <t>FCUPSG1012425</t>
+  </si>
+  <si>
+    <t>51538975</t>
+  </si>
+  <si>
+    <t>51538976</t>
+  </si>
+  <si>
+    <t>$110.21</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW97775467</t>
+  </si>
+  <si>
+    <t>FCUPSG1012427</t>
+  </si>
+  <si>
+    <t>51538978</t>
+  </si>
+  <si>
+    <t>51538981</t>
+  </si>
+  <si>
+    <t>CEV1004440</t>
+  </si>
+  <si>
+    <t>51538983</t>
+  </si>
+  <si>
+    <t>51538984</t>
+  </si>
+  <si>
+    <t>CEV1004442</t>
+  </si>
+  <si>
+    <t>51538987</t>
+  </si>
+  <si>
+    <t>$997.07</t>
+  </si>
+  <si>
+    <t>CEV1004443</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pending Tracking...</t>
+  </si>
+  <si>
+    <t>51538992</t>
+  </si>
+  <si>
+    <t>51538993</t>
+  </si>
+  <si>
+    <t>CEV1004446</t>
+  </si>
+  <si>
+    <t>51538995</t>
+  </si>
+  <si>
+    <t>51538996</t>
+  </si>
+  <si>
+    <t>$1,014.31</t>
+  </si>
+  <si>
+    <t>CEV1004448</t>
+  </si>
+  <si>
+    <t>51538998</t>
+  </si>
+  <si>
+    <t>51538999</t>
+  </si>
+  <si>
+    <t>$488.31</t>
+  </si>
+  <si>
+    <t>CEV1004450</t>
+  </si>
+  <si>
+    <t>51539002</t>
+  </si>
+  <si>
+    <t>1Z44R7R60396372893</t>
+  </si>
+  <si>
+    <t>FCUPSG1012430</t>
+  </si>
+  <si>
+    <t>51539004</t>
+  </si>
+  <si>
+    <t>1Z44R7R60393030490</t>
+  </si>
+  <si>
+    <t>51539007</t>
+  </si>
+  <si>
+    <t>51539008</t>
+  </si>
+  <si>
+    <t>1Z44R7R60395479100</t>
+  </si>
+  <si>
+    <t>FCUPSG1012434</t>
+  </si>
+  <si>
+    <t>51539010</t>
+  </si>
+  <si>
+    <t>51539011</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW93670121</t>
+  </si>
+  <si>
+    <t>FCUPSG1012436</t>
+  </si>
+  <si>
+    <t>51539013</t>
+  </si>
+  <si>
+    <t>51539014</t>
+  </si>
+  <si>
+    <t>$136.73</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW96645519</t>
+  </si>
+  <si>
+    <t>FCUPSG1012438</t>
+  </si>
+  <si>
+    <t>51539016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,14 +883,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="78">
+  <fills count="287">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,8 +1271,1053 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="74">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -1909,111 +3132,954 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="193">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="7" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="8" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="9" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="10" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="12" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="13" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="14" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="15" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="16" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="17" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="18" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="19" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="20" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="21" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="22" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="23" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="24" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="25" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="26" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="27" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="28" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="29" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="30" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="31" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="32" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="33" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="34" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="35" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="36" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="37" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="38" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="39" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="40" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="41" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="42" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="43" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="44" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="45" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="46" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="47" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="48" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="49" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="50" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="51" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="52" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="53" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="54" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="55" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="56" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="57" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="58" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="59" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="60" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="61" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="62" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="63" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="64" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="65" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="66" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="67" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="68" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="69" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="70" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="71" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="72" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="73" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="74" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="76" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="78" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="80" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="82" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="84" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="86" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="88" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="90" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="92" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="94" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="96" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="98" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="100" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="102" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="104" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="106" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="108" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="110" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="112" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="114" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="116" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="118" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="120" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="122" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="124" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="126" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="128" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="130" fillId="134" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="132" fillId="136" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="134" fillId="138" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="136" fillId="140" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="138" fillId="142" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="140" fillId="144" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="142" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="144" fillId="148" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="146" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="148" fillId="152" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="150" fillId="154" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="152" fillId="156" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="154" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="156" fillId="160" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="158" fillId="162" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="160" fillId="164" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="162" fillId="166" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="164" fillId="168" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="166" fillId="170" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="168" fillId="172" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="170" fillId="174" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="172" fillId="176" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="174" fillId="178" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="176" fillId="180" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="178" fillId="182" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="180" fillId="184" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="182" fillId="186" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="184" fillId="188" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="186" fillId="190" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="188" fillId="192" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="190" fillId="194" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="192" fillId="196" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="194" fillId="198" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="196" fillId="200" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="198" fillId="202" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="200" fillId="204" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="202" fillId="206" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="204" fillId="208" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="206" fillId="210" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="208" fillId="212" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="210" fillId="214" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="212" fillId="216" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="214" fillId="218" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="216" fillId="220" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="218" fillId="222" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="220" fillId="224" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="222" fillId="226" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="224" fillId="228" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="226" fillId="230" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="228" fillId="232" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="230" fillId="234" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="232" fillId="236" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="234" fillId="238" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="236" fillId="240" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="238" fillId="242" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="240" fillId="244" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="242" fillId="246" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="244" fillId="248" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="246" fillId="250" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="248" fillId="252" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="250" fillId="254" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="252" fillId="256" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="254" fillId="258" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="256" fillId="260" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="258" fillId="262" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="260" fillId="264" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="262" fillId="266" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="264" fillId="268" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="266" fillId="270" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="268" fillId="272" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="270" fillId="274" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="272" fillId="276" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="274" fillId="278" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="276" fillId="280" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="278" fillId="282" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="280" fillId="284" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="286" borderId="282" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2030,10 +4096,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2197,21 +4263,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2228,7 +4294,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2280,15 +4346,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -2333,10 +4399,10 @@
         <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
         <v>125</v>
@@ -2355,12 +4421,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2369,13 +4435,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -2500,50 +4566,50 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink r:id="rId1" ref="I2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:AH14"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="33.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="9.140625" style="1" collapsed="1"/>
-    <col min="17" max="17" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="40" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="9.140625" style="1" collapsed="1"/>
-    <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="19.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="23.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="11.43359375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="21.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" style="1" width="33.42578125" collapsed="true"/>
+    <col min="14" max="16" style="1" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="40.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="20" max="21" style="1" width="9.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.95703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="13.07421875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.9453125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="24.36328125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="15.97265625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="30" max="32" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="34" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -2650,12 +4716,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.75" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>194</v>
+      <c r="B2" s="125" t="s">
+        <v>204</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -2706,23 +4772,23 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="W2" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="X2" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y2" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z2" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>145</v>
+      <c r="V2" s="124" t="s">
+        <v>236</v>
+      </c>
+      <c r="W2" s="129" t="s">
+        <v>238</v>
+      </c>
+      <c r="X2" s="126" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y2" s="127" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z2" s="128" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>30</v>
@@ -2742,8 +4808,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="67" t="s">
-        <v>194</v>
+      <c r="B3" s="131" t="s">
+        <v>204</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -2796,20 +4862,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="66" t="s">
-        <v>199</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="X3" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y3" s="69" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z3" s="70" t="s">
-        <v>201</v>
+      <c r="V3" s="130" t="s">
+        <v>239</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X3" s="132" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y3" s="133" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z3" s="134" t="s">
+        <v>240</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -2838,8 +4904,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="72" t="s">
-        <v>194</v>
+      <c r="B4" s="136" t="s">
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -2890,20 +4956,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="71" t="s">
-        <v>202</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="X4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y4" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z4" s="75" t="s">
-        <v>204</v>
+      <c r="V4" s="135" t="s">
+        <v>241</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="X4" s="137" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y4" s="138" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z4" s="139" t="s">
+        <v>243</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -2930,8 +4996,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>168</v>
+      <c r="B5" s="141" t="s">
+        <v>244</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -2982,20 +5048,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W5" s="76" t="s">
-        <v>205</v>
-      </c>
-      <c r="X5" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y5" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z5" s="26" t="s">
-        <v>171</v>
+      <c r="V5" s="140" t="s">
+        <v>244</v>
+      </c>
+      <c r="W5" s="145" t="s">
+        <v>246</v>
+      </c>
+      <c r="X5" s="142" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y5" s="143" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z5" s="144" t="s">
+        <v>244</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -3026,8 +5092,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>194</v>
+      <c r="B6" s="147" t="s">
+        <v>204</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -3078,20 +5144,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="77" t="s">
-        <v>206</v>
-      </c>
-      <c r="W6" s="82" t="s">
-        <v>209</v>
-      </c>
-      <c r="X6" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y6" s="80" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z6" s="81" t="s">
-        <v>208</v>
+      <c r="V6" s="146" t="s">
+        <v>247</v>
+      </c>
+      <c r="W6" s="151" t="s">
+        <v>249</v>
+      </c>
+      <c r="X6" s="148" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y6" s="149" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z6" s="150" t="s">
+        <v>248</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -3118,8 +5184,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="84" t="s">
-        <v>194</v>
+      <c r="B7" s="153" t="s">
+        <v>204</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -3168,20 +5234,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="W7" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="X7" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y7" s="86" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z7" s="87" t="s">
-        <v>212</v>
+      <c r="V7" s="152" t="s">
+        <v>250</v>
+      </c>
+      <c r="W7" s="157" t="s">
+        <v>253</v>
+      </c>
+      <c r="X7" s="154" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y7" s="155" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z7" s="156" t="s">
+        <v>252</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -3204,8 +5270,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>168</v>
+      <c r="B8" s="159" t="s">
+        <v>204</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -3256,20 +5322,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="W8" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="X8" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y8" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z8" s="32" t="s">
-        <v>175</v>
+      <c r="V8" s="158" t="s">
+        <v>254</v>
+      </c>
+      <c r="W8" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="X8" s="160" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y8" s="161" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z8" s="162" t="s">
+        <v>256</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -3296,8 +5362,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>168</v>
+      <c r="B9" s="164" t="s">
+        <v>204</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -3348,20 +5414,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="W9" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="X9" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y9" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z9" s="37" t="s">
-        <v>178</v>
+      <c r="V9" s="163" t="s">
+        <v>257</v>
+      </c>
+      <c r="W9" s="168" t="s">
+        <v>260</v>
+      </c>
+      <c r="X9" s="165" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y9" s="166" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z9" s="167" t="s">
+        <v>259</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>144</v>
@@ -3382,8 +5448,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>168</v>
+      <c r="B10" s="170" t="s">
+        <v>244</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -3432,20 +5498,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="W10" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="X10" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y10" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z10" s="42" t="s">
-        <v>181</v>
+      <c r="V10" s="169" t="s">
+        <v>244</v>
+      </c>
+      <c r="W10" s="174" t="s">
+        <v>262</v>
+      </c>
+      <c r="X10" s="171" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y10" s="172" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z10" s="173" t="s">
+        <v>244</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>
@@ -3464,8 +5530,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>168</v>
+      <c r="B11" s="176" t="s">
+        <v>204</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -3516,20 +5582,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="W11" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="X11" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y11" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z11" s="48" t="s">
-        <v>185</v>
+      <c r="V11" s="175" t="s">
+        <v>263</v>
+      </c>
+      <c r="W11" s="180" t="s">
+        <v>266</v>
+      </c>
+      <c r="X11" s="177" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y11" s="178" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z11" s="179" t="s">
+        <v>265</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>144</v>
@@ -3550,8 +5616,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>168</v>
+      <c r="B12" s="182" t="s">
+        <v>204</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -3602,20 +5668,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="W12" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="X12" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y12" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z12" s="53" t="s">
-        <v>188</v>
+      <c r="V12" s="181" t="s">
+        <v>267</v>
+      </c>
+      <c r="W12" s="186" t="s">
+        <v>270</v>
+      </c>
+      <c r="X12" s="183" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y12" s="184" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z12" s="185" t="s">
+        <v>269</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -3636,8 +5702,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>168</v>
+      <c r="B13" s="188" t="s">
+        <v>204</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -3686,20 +5752,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="W13" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="X13" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y13" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z13" s="58" t="s">
-        <v>191</v>
+      <c r="V13" s="187" t="s">
+        <v>271</v>
+      </c>
+      <c r="W13" s="192" t="s">
+        <v>275</v>
+      </c>
+      <c r="X13" s="189" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y13" s="190" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z13" s="191" t="s">
+        <v>274</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>
@@ -3718,14 +5784,14 @@
       <c r="A14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="87" t="s">
-        <v>158</v>
+      <c r="B14" s="21" t="s">
+        <v>155</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -3769,26 +5835,26 @@
       <c r="T14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="U14" s="88" t="s">
+      <c r="U14" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="V14" s="87" t="s">
+      <c r="V14" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="W14" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y14" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z14" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="W14" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="X14" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y14" s="87" t="s">
+      <c r="AA14" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="Z14" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA14" s="88" t="s">
-        <v>214</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>98</v>
@@ -3812,7 +5878,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="319">
   <si>
     <t>shipmentType</t>
   </si>
@@ -855,6 +855,135 @@
   </si>
   <si>
     <t>51539016</t>
+  </si>
+  <si>
+    <t>51539065</t>
+  </si>
+  <si>
+    <t>05-09-2022</t>
+  </si>
+  <si>
+    <t>CEV1004452</t>
+  </si>
+  <si>
+    <t>51539067</t>
+  </si>
+  <si>
+    <t>51539071</t>
+  </si>
+  <si>
+    <t>CEV1004455</t>
+  </si>
+  <si>
+    <t>51539075</t>
+  </si>
+  <si>
+    <t>$2,658.34</t>
+  </si>
+  <si>
+    <t>CEV1004456</t>
+  </si>
+  <si>
+    <t>51539077</t>
+  </si>
+  <si>
+    <t>51539078</t>
+  </si>
+  <si>
+    <t>CEV1004458</t>
+  </si>
+  <si>
+    <t>51539080</t>
+  </si>
+  <si>
+    <t>51539081</t>
+  </si>
+  <si>
+    <t>CEV1004460</t>
+  </si>
+  <si>
+    <t>51539083</t>
+  </si>
+  <si>
+    <t>51539084</t>
+  </si>
+  <si>
+    <t>CEV1004462</t>
+  </si>
+  <si>
+    <t>51539087</t>
+  </si>
+  <si>
+    <t>$66.38</t>
+  </si>
+  <si>
+    <t>1Z44R7R60393152886</t>
+  </si>
+  <si>
+    <t>FCUPSG1012444</t>
+  </si>
+  <si>
+    <t>51539089</t>
+  </si>
+  <si>
+    <t>51539090</t>
+  </si>
+  <si>
+    <t>$85.64</t>
+  </si>
+  <si>
+    <t>1Z44R7R60392585705</t>
+  </si>
+  <si>
+    <t>FCUPSG1012446</t>
+  </si>
+  <si>
+    <t>51539092</t>
+  </si>
+  <si>
+    <t>51539093</t>
+  </si>
+  <si>
+    <t>$159.84</t>
+  </si>
+  <si>
+    <t>1Z44R7R60392981803</t>
+  </si>
+  <si>
+    <t>FCUPSG1012448</t>
+  </si>
+  <si>
+    <t>51539095</t>
+  </si>
+  <si>
+    <t>51539096</t>
+  </si>
+  <si>
+    <t>$110.87</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW97064887</t>
+  </si>
+  <si>
+    <t>FCUPSG1012450</t>
+  </si>
+  <si>
+    <t>51539098</t>
+  </si>
+  <si>
+    <t>51539099</t>
+  </si>
+  <si>
+    <t>$137.54</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW97194899</t>
+  </si>
+  <si>
+    <t>FCUPSG1012452</t>
+  </si>
+  <si>
+    <t>51539101</t>
   </si>
 </sst>
 </file>
@@ -884,7 +1013,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="287">
+  <fills count="425">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2316,8 +2445,698 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="421">
     <border>
       <left/>
       <right/>
@@ -3142,6 +3961,489 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -3879,7 +5181,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="262">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -4072,7 +5374,76 @@
     <xf applyBorder="true" applyFill="true" borderId="276" fillId="280" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="278" fillId="282" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="280" fillId="284" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="286" borderId="282" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="282" fillId="286" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="284" fillId="288" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="286" fillId="290" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="288" fillId="292" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="290" fillId="294" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="292" fillId="296" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="294" fillId="298" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="296" fillId="300" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="298" fillId="302" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="300" fillId="304" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="302" fillId="306" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="304" fillId="308" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="306" fillId="310" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="308" fillId="312" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="310" fillId="314" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="312" fillId="316" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="314" fillId="318" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="316" fillId="320" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="318" fillId="322" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="320" fillId="324" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="322" fillId="326" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="324" fillId="328" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="326" fillId="330" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="328" fillId="332" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="330" fillId="334" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="332" fillId="336" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="334" fillId="338" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="336" fillId="340" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="338" fillId="342" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="340" fillId="344" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="342" fillId="346" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="344" fillId="348" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="346" fillId="350" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="348" fillId="352" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="350" fillId="354" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="352" fillId="356" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="354" fillId="358" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="356" fillId="360" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="358" fillId="362" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="360" fillId="364" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="362" fillId="366" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="364" fillId="368" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="366" fillId="370" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="368" fillId="372" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="370" fillId="374" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="372" fillId="376" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="374" fillId="378" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="376" fillId="380" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="378" fillId="382" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="380" fillId="384" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="382" fillId="386" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="384" fillId="388" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="386" fillId="390" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="388" fillId="392" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="390" fillId="394" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="392" fillId="396" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="394" fillId="398" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="396" fillId="400" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="398" fillId="402" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="400" fillId="404" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="402" fillId="406" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="404" fillId="408" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="406" fillId="410" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="408" fillId="412" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="410" fillId="414" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="412" fillId="416" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="414" fillId="418" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="416" fillId="420" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="418" fillId="422" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="424" borderId="420" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -4720,8 +6091,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="125" t="s">
-        <v>204</v>
+      <c r="B2" s="194" t="s">
+        <v>277</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -4772,20 +6143,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="124" t="s">
-        <v>236</v>
-      </c>
-      <c r="W2" s="129" t="s">
-        <v>238</v>
-      </c>
-      <c r="X2" s="126" t="s">
+      <c r="V2" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="W2" s="198" t="s">
+        <v>279</v>
+      </c>
+      <c r="X2" s="195" t="s">
         <v>210</v>
       </c>
-      <c r="Y2" s="127" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z2" s="128" t="s">
-        <v>237</v>
+      <c r="Y2" s="196" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z2" s="197" t="s">
+        <v>278</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>95</v>
@@ -4808,8 +6179,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="131" t="s">
-        <v>204</v>
+      <c r="B3" s="200" t="s">
+        <v>244</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -4862,20 +6233,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="130" t="s">
-        <v>239</v>
+      <c r="V3" s="199" t="s">
+        <v>244</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="X3" s="132" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y3" s="133" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z3" s="134" t="s">
-        <v>240</v>
+      <c r="X3" s="201" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y3" s="202" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z3" s="203" t="s">
+        <v>244</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -4904,8 +6275,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="136" t="s">
-        <v>204</v>
+      <c r="B4" s="205" t="s">
+        <v>277</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -4956,20 +6327,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="135" t="s">
-        <v>241</v>
+      <c r="V4" s="204" t="s">
+        <v>280</v>
       </c>
       <c r="W4" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="X4" s="137" t="s">
+      <c r="X4" s="206" t="s">
         <v>242</v>
       </c>
-      <c r="Y4" s="138" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z4" s="139" t="s">
-        <v>243</v>
+      <c r="Y4" s="207" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z4" s="208" t="s">
+        <v>281</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -4996,8 +6367,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="141" t="s">
-        <v>244</v>
+      <c r="B5" s="210" t="s">
+        <v>277</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -5048,20 +6419,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="140" t="s">
-        <v>244</v>
-      </c>
-      <c r="W5" s="145" t="s">
-        <v>246</v>
-      </c>
-      <c r="X5" s="142" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y5" s="143" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z5" s="144" t="s">
-        <v>244</v>
+      <c r="V5" s="209" t="s">
+        <v>282</v>
+      </c>
+      <c r="W5" s="214" t="s">
+        <v>285</v>
+      </c>
+      <c r="X5" s="211" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y5" s="212" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z5" s="213" t="s">
+        <v>284</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -5092,8 +6463,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="147" t="s">
-        <v>204</v>
+      <c r="B6" s="216" t="s">
+        <v>277</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -5144,20 +6515,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="146" t="s">
-        <v>247</v>
-      </c>
-      <c r="W6" s="151" t="s">
-        <v>249</v>
-      </c>
-      <c r="X6" s="148" t="s">
+      <c r="V6" s="215" t="s">
+        <v>286</v>
+      </c>
+      <c r="W6" s="220" t="s">
+        <v>288</v>
+      </c>
+      <c r="X6" s="217" t="s">
         <v>242</v>
       </c>
-      <c r="Y6" s="149" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z6" s="150" t="s">
-        <v>248</v>
+      <c r="Y6" s="218" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z6" s="219" t="s">
+        <v>287</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -5184,8 +6555,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="153" t="s">
-        <v>204</v>
+      <c r="B7" s="222" t="s">
+        <v>277</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -5234,20 +6605,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="152" t="s">
-        <v>250</v>
-      </c>
-      <c r="W7" s="157" t="s">
-        <v>253</v>
-      </c>
-      <c r="X7" s="154" t="s">
+      <c r="V7" s="221" t="s">
+        <v>289</v>
+      </c>
+      <c r="W7" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="X7" s="223" t="s">
         <v>251</v>
       </c>
-      <c r="Y7" s="155" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z7" s="156" t="s">
-        <v>252</v>
+      <c r="Y7" s="224" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z7" s="225" t="s">
+        <v>290</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -5270,8 +6641,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="159" t="s">
-        <v>204</v>
+      <c r="B8" s="228" t="s">
+        <v>277</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -5322,20 +6693,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="158" t="s">
-        <v>254</v>
+      <c r="V8" s="227" t="s">
+        <v>292</v>
       </c>
       <c r="W8" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="X8" s="160" t="s">
+      <c r="X8" s="229" t="s">
         <v>255</v>
       </c>
-      <c r="Y8" s="161" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z8" s="162" t="s">
-        <v>256</v>
+      <c r="Y8" s="230" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z8" s="231" t="s">
+        <v>293</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -5362,8 +6733,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="164" t="s">
-        <v>204</v>
+      <c r="B9" s="233" t="s">
+        <v>277</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -5414,20 +6785,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="163" t="s">
-        <v>257</v>
-      </c>
-      <c r="W9" s="168" t="s">
-        <v>260</v>
-      </c>
-      <c r="X9" s="165" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y9" s="166" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z9" s="167" t="s">
-        <v>259</v>
+      <c r="V9" s="232" t="s">
+        <v>294</v>
+      </c>
+      <c r="W9" s="237" t="s">
+        <v>298</v>
+      </c>
+      <c r="X9" s="234" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y9" s="235" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z9" s="236" t="s">
+        <v>297</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>144</v>
@@ -5448,8 +6819,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="170" t="s">
-        <v>244</v>
+      <c r="B10" s="239" t="s">
+        <v>277</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -5498,20 +6869,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="169" t="s">
-        <v>244</v>
-      </c>
-      <c r="W10" s="174" t="s">
-        <v>262</v>
-      </c>
-      <c r="X10" s="171" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y10" s="172" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z10" s="173" t="s">
-        <v>244</v>
+      <c r="V10" s="238" t="s">
+        <v>299</v>
+      </c>
+      <c r="W10" s="243" t="s">
+        <v>303</v>
+      </c>
+      <c r="X10" s="240" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y10" s="241" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z10" s="242" t="s">
+        <v>302</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>
@@ -5530,8 +6901,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="176" t="s">
-        <v>204</v>
+      <c r="B11" s="245" t="s">
+        <v>277</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -5582,20 +6953,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="175" t="s">
-        <v>263</v>
-      </c>
-      <c r="W11" s="180" t="s">
-        <v>266</v>
-      </c>
-      <c r="X11" s="177" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y11" s="178" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z11" s="179" t="s">
-        <v>265</v>
+      <c r="V11" s="244" t="s">
+        <v>304</v>
+      </c>
+      <c r="W11" s="249" t="s">
+        <v>308</v>
+      </c>
+      <c r="X11" s="246" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y11" s="247" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z11" s="248" t="s">
+        <v>307</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>144</v>
@@ -5616,8 +6987,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="182" t="s">
-        <v>204</v>
+      <c r="B12" s="251" t="s">
+        <v>277</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -5668,20 +7039,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="181" t="s">
-        <v>267</v>
-      </c>
-      <c r="W12" s="186" t="s">
-        <v>270</v>
-      </c>
-      <c r="X12" s="183" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y12" s="184" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z12" s="185" t="s">
-        <v>269</v>
+      <c r="V12" s="250" t="s">
+        <v>309</v>
+      </c>
+      <c r="W12" s="255" t="s">
+        <v>313</v>
+      </c>
+      <c r="X12" s="252" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y12" s="253" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z12" s="254" t="s">
+        <v>312</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -5702,8 +7073,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="188" t="s">
-        <v>204</v>
+      <c r="B13" s="257" t="s">
+        <v>277</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -5752,20 +7123,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="187" t="s">
-        <v>271</v>
-      </c>
-      <c r="W13" s="192" t="s">
-        <v>275</v>
-      </c>
-      <c r="X13" s="189" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y13" s="190" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z13" s="191" t="s">
-        <v>274</v>
+      <c r="V13" s="256" t="s">
+        <v>314</v>
+      </c>
+      <c r="W13" s="261" t="s">
+        <v>318</v>
+      </c>
+      <c r="X13" s="258" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y13" s="259" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z13" s="260" t="s">
+        <v>317</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="363">
   <si>
     <t>shipmentType</t>
   </si>
@@ -984,6 +984,138 @@
   </si>
   <si>
     <t>51539101</t>
+  </si>
+  <si>
+    <t>51540236</t>
+  </si>
+  <si>
+    <t>05-24-2022</t>
+  </si>
+  <si>
+    <t>CEV1004532</t>
+  </si>
+  <si>
+    <t>51540238</t>
+  </si>
+  <si>
+    <t>51540239</t>
+  </si>
+  <si>
+    <t>CEV1004534</t>
+  </si>
+  <si>
+    <t>51540242</t>
+  </si>
+  <si>
+    <t>CEV1004535</t>
+  </si>
+  <si>
+    <t>51540245</t>
+  </si>
+  <si>
+    <t>CEV1004536</t>
+  </si>
+  <si>
+    <t>51540249</t>
+  </si>
+  <si>
+    <t>51540250</t>
+  </si>
+  <si>
+    <t>CEV1004539</t>
+  </si>
+  <si>
+    <t>51540254</t>
+  </si>
+  <si>
+    <t>51540255</t>
+  </si>
+  <si>
+    <t>CEV1004542</t>
+  </si>
+  <si>
+    <t>51540259</t>
+  </si>
+  <si>
+    <t>51540260</t>
+  </si>
+  <si>
+    <t>CEV1004544</t>
+  </si>
+  <si>
+    <t>51540263</t>
+  </si>
+  <si>
+    <t>$66.51</t>
+  </si>
+  <si>
+    <t>1Z44R7R60397721656</t>
+  </si>
+  <si>
+    <t>FCUPSG1012549</t>
+  </si>
+  <si>
+    <t>51540265</t>
+  </si>
+  <si>
+    <t>51540266</t>
+  </si>
+  <si>
+    <t>$85.80</t>
+  </si>
+  <si>
+    <t>1Z44R7R60394029795</t>
+  </si>
+  <si>
+    <t>FCUPSG1012551</t>
+  </si>
+  <si>
+    <t>51540268</t>
+  </si>
+  <si>
+    <t>51540269</t>
+  </si>
+  <si>
+    <t>$160.13</t>
+  </si>
+  <si>
+    <t>1Z44R7R60398720673</t>
+  </si>
+  <si>
+    <t>FCUPSG1012553</t>
+  </si>
+  <si>
+    <t>51540271</t>
+  </si>
+  <si>
+    <t>51540272</t>
+  </si>
+  <si>
+    <t>$111.09</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW99165541</t>
+  </si>
+  <si>
+    <t>FCUPSG1012555</t>
+  </si>
+  <si>
+    <t>51540274</t>
+  </si>
+  <si>
+    <t>51540275</t>
+  </si>
+  <si>
+    <t>$137.80</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW91633899</t>
+  </si>
+  <si>
+    <t>FCUPSG1012557</t>
+  </si>
+  <si>
+    <t>51540277</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="425">
+  <fills count="563">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3135,8 +3267,698 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="421">
+  <borders count="559">
     <border>
       <left/>
       <right/>
@@ -5173,6 +5995,489 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5181,7 +6486,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="331">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -5443,7 +6748,76 @@
     <xf applyBorder="true" applyFill="true" borderId="414" fillId="418" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="416" fillId="420" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="418" fillId="422" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="424" borderId="420" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="420" fillId="424" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="422" fillId="426" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="424" fillId="428" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="426" fillId="430" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="428" fillId="432" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="430" fillId="434" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="432" fillId="436" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="434" fillId="438" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="436" fillId="440" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="438" fillId="442" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="440" fillId="444" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="442" fillId="446" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="444" fillId="448" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="446" fillId="450" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="448" fillId="452" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="450" fillId="454" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="452" fillId="456" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="454" fillId="458" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="456" fillId="460" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="458" fillId="462" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="460" fillId="464" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="462" fillId="466" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="464" fillId="468" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="466" fillId="470" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="468" fillId="472" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="470" fillId="474" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="472" fillId="476" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="474" fillId="478" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="476" fillId="480" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="478" fillId="482" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="480" fillId="484" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="482" fillId="486" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="484" fillId="488" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="486" fillId="490" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="488" fillId="492" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="490" fillId="494" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="492" fillId="496" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="494" fillId="498" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="496" fillId="500" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="498" fillId="502" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="500" fillId="504" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="502" fillId="506" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="504" fillId="508" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="506" fillId="510" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="508" fillId="512" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="510" fillId="514" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="512" fillId="516" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="514" fillId="518" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="516" fillId="520" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="518" fillId="522" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="520" fillId="524" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="522" fillId="526" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="524" fillId="528" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="526" fillId="530" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="528" fillId="532" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="530" fillId="534" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="532" fillId="536" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="534" fillId="538" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="536" fillId="540" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="538" fillId="542" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="540" fillId="544" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="542" fillId="546" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="544" fillId="548" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="546" fillId="550" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="548" fillId="552" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="550" fillId="554" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="552" fillId="556" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="554" fillId="558" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="556" fillId="560" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="562" borderId="558" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -6091,8 +7465,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="194" t="s">
-        <v>277</v>
+      <c r="B2" s="263" t="s">
+        <v>320</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -6143,20 +7517,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="W2" s="198" t="s">
-        <v>279</v>
-      </c>
-      <c r="X2" s="195" t="s">
+      <c r="V2" s="262" t="s">
+        <v>319</v>
+      </c>
+      <c r="W2" s="267" t="s">
+        <v>322</v>
+      </c>
+      <c r="X2" s="264" t="s">
         <v>210</v>
       </c>
-      <c r="Y2" s="196" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z2" s="197" t="s">
-        <v>278</v>
+      <c r="Y2" s="265" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z2" s="266" t="s">
+        <v>321</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>95</v>
@@ -6179,8 +7553,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="200" t="s">
-        <v>244</v>
+      <c r="B3" s="269" t="s">
+        <v>320</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -6233,20 +7607,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="199" t="s">
-        <v>244</v>
+      <c r="V3" s="268" t="s">
+        <v>323</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="X3" s="201" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y3" s="202" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z3" s="203" t="s">
-        <v>244</v>
+      <c r="X3" s="270" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y3" s="271" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z3" s="272" t="s">
+        <v>324</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -6275,8 +7649,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="205" t="s">
-        <v>277</v>
+      <c r="B4" s="274" t="s">
+        <v>320</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -6327,20 +7701,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="204" t="s">
-        <v>280</v>
+      <c r="V4" s="273" t="s">
+        <v>325</v>
       </c>
       <c r="W4" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="X4" s="206" t="s">
+      <c r="X4" s="275" t="s">
         <v>242</v>
       </c>
-      <c r="Y4" s="207" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z4" s="208" t="s">
-        <v>281</v>
+      <c r="Y4" s="276" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z4" s="277" t="s">
+        <v>326</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -6367,8 +7741,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="210" t="s">
-        <v>277</v>
+      <c r="B5" s="279" t="s">
+        <v>320</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -6419,20 +7793,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="209" t="s">
-        <v>282</v>
-      </c>
-      <c r="W5" s="214" t="s">
-        <v>285</v>
-      </c>
-      <c r="X5" s="211" t="s">
+      <c r="V5" s="278" t="s">
+        <v>327</v>
+      </c>
+      <c r="W5" s="283" t="s">
+        <v>329</v>
+      </c>
+      <c r="X5" s="280" t="s">
         <v>283</v>
       </c>
-      <c r="Y5" s="212" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z5" s="213" t="s">
-        <v>284</v>
+      <c r="Y5" s="281" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z5" s="282" t="s">
+        <v>328</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -6463,8 +7837,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="216" t="s">
-        <v>277</v>
+      <c r="B6" s="285" t="s">
+        <v>320</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -6515,20 +7889,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="215" t="s">
-        <v>286</v>
-      </c>
-      <c r="W6" s="220" t="s">
-        <v>288</v>
-      </c>
-      <c r="X6" s="217" t="s">
+      <c r="V6" s="284" t="s">
+        <v>330</v>
+      </c>
+      <c r="W6" s="289" t="s">
+        <v>332</v>
+      </c>
+      <c r="X6" s="286" t="s">
         <v>242</v>
       </c>
-      <c r="Y6" s="218" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z6" s="219" t="s">
-        <v>287</v>
+      <c r="Y6" s="287" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z6" s="288" t="s">
+        <v>331</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -6555,8 +7929,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="222" t="s">
-        <v>277</v>
+      <c r="B7" s="291" t="s">
+        <v>320</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -6605,20 +7979,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="221" t="s">
-        <v>289</v>
-      </c>
-      <c r="W7" s="226" t="s">
-        <v>291</v>
-      </c>
-      <c r="X7" s="223" t="s">
+      <c r="V7" s="290" t="s">
+        <v>333</v>
+      </c>
+      <c r="W7" s="295" t="s">
+        <v>335</v>
+      </c>
+      <c r="X7" s="292" t="s">
         <v>251</v>
       </c>
-      <c r="Y7" s="224" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z7" s="225" t="s">
-        <v>290</v>
+      <c r="Y7" s="293" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z7" s="294" t="s">
+        <v>334</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -6641,8 +8015,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="228" t="s">
-        <v>277</v>
+      <c r="B8" s="297" t="s">
+        <v>320</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -6693,20 +8067,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="227" t="s">
-        <v>292</v>
+      <c r="V8" s="296" t="s">
+        <v>336</v>
       </c>
       <c r="W8" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="X8" s="229" t="s">
+      <c r="X8" s="298" t="s">
         <v>255</v>
       </c>
-      <c r="Y8" s="230" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z8" s="231" t="s">
-        <v>293</v>
+      <c r="Y8" s="299" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z8" s="300" t="s">
+        <v>337</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -6733,8 +8107,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="233" t="s">
-        <v>277</v>
+      <c r="B9" s="302" t="s">
+        <v>320</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -6785,20 +8159,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="232" t="s">
-        <v>294</v>
-      </c>
-      <c r="W9" s="237" t="s">
-        <v>298</v>
-      </c>
-      <c r="X9" s="234" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y9" s="235" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z9" s="236" t="s">
-        <v>297</v>
+      <c r="V9" s="301" t="s">
+        <v>338</v>
+      </c>
+      <c r="W9" s="306" t="s">
+        <v>342</v>
+      </c>
+      <c r="X9" s="303" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y9" s="304" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z9" s="305" t="s">
+        <v>341</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>144</v>
@@ -6819,8 +8193,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="239" t="s">
-        <v>277</v>
+      <c r="B10" s="308" t="s">
+        <v>320</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -6869,20 +8243,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="238" t="s">
-        <v>299</v>
-      </c>
-      <c r="W10" s="243" t="s">
-        <v>303</v>
-      </c>
-      <c r="X10" s="240" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y10" s="241" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z10" s="242" t="s">
-        <v>302</v>
+      <c r="V10" s="307" t="s">
+        <v>343</v>
+      </c>
+      <c r="W10" s="312" t="s">
+        <v>347</v>
+      </c>
+      <c r="X10" s="309" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y10" s="310" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z10" s="311" t="s">
+        <v>346</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>
@@ -6901,8 +8275,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="245" t="s">
-        <v>277</v>
+      <c r="B11" s="314" t="s">
+        <v>320</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -6953,20 +8327,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="244" t="s">
-        <v>304</v>
-      </c>
-      <c r="W11" s="249" t="s">
-        <v>308</v>
-      </c>
-      <c r="X11" s="246" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y11" s="247" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z11" s="248" t="s">
-        <v>307</v>
+      <c r="V11" s="313" t="s">
+        <v>348</v>
+      </c>
+      <c r="W11" s="318" t="s">
+        <v>352</v>
+      </c>
+      <c r="X11" s="315" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y11" s="316" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z11" s="317" t="s">
+        <v>351</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>144</v>
@@ -6987,8 +8361,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="251" t="s">
-        <v>277</v>
+      <c r="B12" s="320" t="s">
+        <v>320</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -7039,20 +8413,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="250" t="s">
-        <v>309</v>
-      </c>
-      <c r="W12" s="255" t="s">
-        <v>313</v>
-      </c>
-      <c r="X12" s="252" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y12" s="253" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z12" s="254" t="s">
-        <v>312</v>
+      <c r="V12" s="319" t="s">
+        <v>353</v>
+      </c>
+      <c r="W12" s="324" t="s">
+        <v>357</v>
+      </c>
+      <c r="X12" s="321" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y12" s="322" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z12" s="323" t="s">
+        <v>356</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -7073,8 +8447,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="257" t="s">
-        <v>277</v>
+      <c r="B13" s="326" t="s">
+        <v>320</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -7123,20 +8497,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="256" t="s">
-        <v>314</v>
-      </c>
-      <c r="W13" s="261" t="s">
-        <v>318</v>
-      </c>
-      <c r="X13" s="258" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y13" s="259" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z13" s="260" t="s">
-        <v>317</v>
+      <c r="V13" s="325" t="s">
+        <v>358</v>
+      </c>
+      <c r="W13" s="330" t="s">
+        <v>362</v>
+      </c>
+      <c r="X13" s="327" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y13" s="328" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z13" s="329" t="s">
+        <v>361</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\testdata\FCfiles\qa\QuickQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{E6A92CCD-BCA9-4587-97A0-9A916DE3F413}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D8622C25-EBF8-4724-8C12-7A527FCB59F4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView activeTab="2" tabRatio="589" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="243">
   <si>
     <t>shipmentType</t>
   </si>
@@ -500,12 +500,6 @@
     <t>FC Test Carrier</t>
   </si>
   <si>
-    <t>$508.69</t>
-  </si>
-  <si>
-    <t>$858.45</t>
-  </si>
-  <si>
     <t>$997.07</t>
   </si>
   <si>
@@ -515,57 +509,24 @@
     <t>$488.31</t>
   </si>
   <si>
-    <t>$2,658.34</t>
-  </si>
-  <si>
     <t>05-24-2022</t>
   </si>
   <si>
-    <t>CEV1004532</t>
-  </si>
-  <si>
     <t>51540238</t>
   </si>
   <si>
-    <t>51540239</t>
-  </si>
-  <si>
-    <t>CEV1004534</t>
-  </si>
-  <si>
     <t>51540242</t>
   </si>
   <si>
     <t>CEV1004535</t>
   </si>
   <si>
-    <t>51540245</t>
-  </si>
-  <si>
-    <t>CEV1004536</t>
-  </si>
-  <si>
-    <t>51540249</t>
-  </si>
-  <si>
-    <t>51540250</t>
-  </si>
-  <si>
-    <t>CEV1004539</t>
-  </si>
-  <si>
-    <t>51540254</t>
-  </si>
-  <si>
     <t>51540255</t>
   </si>
   <si>
     <t>CEV1004542</t>
   </si>
   <si>
-    <t>51540259</t>
-  </si>
-  <si>
     <t>51540260</t>
   </si>
   <si>
@@ -584,9 +545,6 @@
     <t>FCUPSG1012549</t>
   </si>
   <si>
-    <t>51540265</t>
-  </si>
-  <si>
     <t>51540266</t>
   </si>
   <si>
@@ -614,55 +572,190 @@
     <t>FCUPSG1012553</t>
   </si>
   <si>
-    <t>51540271</t>
-  </si>
-  <si>
-    <t>51540272</t>
-  </si>
-  <si>
-    <t>$111.09</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW99165541</t>
-  </si>
-  <si>
-    <t>FCUPSG1012555</t>
-  </si>
-  <si>
-    <t>51540274</t>
-  </si>
-  <si>
-    <t>51540275</t>
-  </si>
-  <si>
-    <t>$137.80</t>
-  </si>
-  <si>
-    <t>1Z44R7R6YW91633899</t>
-  </si>
-  <si>
-    <t>FCUPSG1012557</t>
-  </si>
-  <si>
-    <t>51540277</t>
-  </si>
-  <si>
-    <t>51541534</t>
-  </si>
-  <si>
-    <t>06-12-2022</t>
-  </si>
-  <si>
-    <t>$789.95</t>
-  </si>
-  <si>
-    <t>CEV1004617</t>
-  </si>
-  <si>
-    <t>51541536</t>
-  </si>
-  <si>
-    <t>CEV1004618</t>
+    <t>51541988</t>
+  </si>
+  <si>
+    <t>06-20-2022</t>
+  </si>
+  <si>
+    <t>$1,206.55</t>
+  </si>
+  <si>
+    <t>CEV1004652</t>
+  </si>
+  <si>
+    <t>51541994</t>
+  </si>
+  <si>
+    <t>$3,272.96</t>
+  </si>
+  <si>
+    <t>CEV1004653</t>
+  </si>
+  <si>
+    <t>51541997</t>
+  </si>
+  <si>
+    <t>$1,276.56</t>
+  </si>
+  <si>
+    <t>CEV1004655</t>
+  </si>
+  <si>
+    <t>51542015</t>
+  </si>
+  <si>
+    <t>$106.14</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW99909596</t>
+  </si>
+  <si>
+    <t>FCUPSG1012650</t>
+  </si>
+  <si>
+    <t>51542018</t>
+  </si>
+  <si>
+    <t>$131.75</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW99570219</t>
+  </si>
+  <si>
+    <t>FCUPSG1012652</t>
+  </si>
+  <si>
+    <t>51542020</t>
+  </si>
+  <si>
+    <t>51542729</t>
+  </si>
+  <si>
+    <t>51542732</t>
+  </si>
+  <si>
+    <t>51542734</t>
+  </si>
+  <si>
+    <t>51542738</t>
+  </si>
+  <si>
+    <t>51542744</t>
+  </si>
+  <si>
+    <t>51542749</t>
+  </si>
+  <si>
+    <t>51542807</t>
+  </si>
+  <si>
+    <t>07-04-2022</t>
+  </si>
+  <si>
+    <t>$736.47</t>
+  </si>
+  <si>
+    <t>CEV1004681</t>
+  </si>
+  <si>
+    <t>51543284</t>
+  </si>
+  <si>
+    <t>07-07-2022</t>
+  </si>
+  <si>
+    <t>CEV1004699</t>
+  </si>
+  <si>
+    <t>51543286</t>
+  </si>
+  <si>
+    <t>51543291</t>
+  </si>
+  <si>
+    <t>$1,223.08</t>
+  </si>
+  <si>
+    <t>CEV1004701</t>
+  </si>
+  <si>
+    <t>51543295</t>
+  </si>
+  <si>
+    <t>51543297</t>
+  </si>
+  <si>
+    <t>51543298</t>
+  </si>
+  <si>
+    <t>$1,240.32</t>
+  </si>
+  <si>
+    <t>CEV1004704</t>
+  </si>
+  <si>
+    <t>51543300</t>
+  </si>
+  <si>
+    <t>51543301</t>
+  </si>
+  <si>
+    <t>$716.09</t>
+  </si>
+  <si>
+    <t>CEV1004706</t>
+  </si>
+  <si>
+    <t>51543304</t>
+  </si>
+  <si>
+    <t>$63.61</t>
+  </si>
+  <si>
+    <t>1ZXXXXXXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>FCUPSG1012688</t>
+  </si>
+  <si>
+    <t>51543306</t>
+  </si>
+  <si>
+    <t>51543307</t>
+  </si>
+  <si>
+    <t>$82.12</t>
+  </si>
+  <si>
+    <t>FCUPSG1012690</t>
+  </si>
+  <si>
+    <t>51543309</t>
+  </si>
+  <si>
+    <t>51543310</t>
+  </si>
+  <si>
+    <t>$152.89</t>
+  </si>
+  <si>
+    <t>FCUPSG1012692</t>
+  </si>
+  <si>
+    <t>51543312</t>
+  </si>
+  <si>
+    <t>51543314</t>
+  </si>
+  <si>
+    <t>51543318</t>
+  </si>
+  <si>
+    <t>$1,153.08</t>
+  </si>
+  <si>
+    <t>CEV1004708</t>
   </si>
 </sst>
 </file>
@@ -670,7 +763,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,8 +784,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="99">
+  <fills count="175">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1184,8 +1283,388 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="95">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -1222,11 +1701,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1286,730 +1763,270 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -2089,7 +2106,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="139">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2105,90 +2122,130 @@
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="5" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="6" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="7" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="8" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="9" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="10" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="11" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="12" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="13" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="14" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="15" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="16" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="17" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="18" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="19" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="20" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="21" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="22" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="23" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="24" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="25" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="26" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="27" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="28" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="29" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="30" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="31" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="32" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="33" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="34" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="35" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="36" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="37" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="38" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="39" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="40" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="41" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="42" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="43" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="44" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="45" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="46" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="47" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="48" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="49" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="50" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="51" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="52" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="53" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="54" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="55" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="56" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="57" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="58" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="59" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="60" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="61" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="62" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="63" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="64" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="65" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="66" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="67" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="68" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="69" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="70" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="71" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="72" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="73" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="74" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="76" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="78" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="80" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="82" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="84" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="86" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="88" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="90" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="92" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="94" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="7" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="8" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="14" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="40" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="42" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="46" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="50" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="52" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="54" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="58" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="60" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="62" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="64" fillId="134" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="66" fillId="136" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="68" fillId="138" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="70" fillId="140" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="72" fillId="142" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="74" fillId="144" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="76" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="78" fillId="148" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="80" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="82" fillId="152" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="84" fillId="154" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="86" fillId="156" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="88" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="90" fillId="160" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="92" fillId="162" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="94" fillId="164" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="96" fillId="166" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="98" fillId="168" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="100" fillId="170" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="102" fillId="172" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="104" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2690,10 +2747,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,12 +2772,12 @@
     <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="40.0" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
     <col min="20" max="21" style="1" width="9.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.95703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.9453125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="24.36328125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="15.97265625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="9.95703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="13.07421875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="9.9453125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="24.36328125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="15.97265625" collapsed="true"/>
     <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
     <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
     <col min="30" max="32" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
@@ -2728,7 +2785,7 @@
     <col min="34" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2792,23 +2849,23 @@
       <c r="U1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>105</v>
@@ -2832,12 +2889,12 @@
         <v>128</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.75" r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="95" t="s">
-        <v>207</v>
+      <c r="B2" s="92" t="s">
+        <v>211</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -2849,14 +2906,14 @@
         <v>23</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="90" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="90" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="3"/>
@@ -2888,23 +2945,23 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="94" t="s">
+      <c r="V2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="W2" s="25" t="s">
-        <v>165</v>
-      </c>
       <c r="X2" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y2" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="Y2" s="97" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z2" s="98" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>95</v>
+      <c r="Z2" s="94" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA2" s="95" t="s">
+        <v>212</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>30</v>
@@ -2920,12 +2977,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>163</v>
+      <c r="B3" s="135" t="s">
+        <v>211</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -2937,14 +2994,14 @@
       <c r="F3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="90" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="90" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="3"/>
@@ -2978,23 +3035,23 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="W3" s="15" t="s">
+      <c r="V3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" s="134" t="s">
+        <v>240</v>
+      </c>
+      <c r="X3" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="X3" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y3" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z3" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>95</v>
+      <c r="Y3" s="136" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z3" s="137" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA3" s="138" t="s">
+        <v>242</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>76</v>
@@ -3016,12 +3073,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>163</v>
+      <c r="B4" s="98" t="s">
+        <v>211</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -3033,14 +3090,14 @@
         <v>23</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="90" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="90" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="3"/>
@@ -3072,23 +3129,23 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="W4" s="16" t="s">
+      <c r="V4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="W4" s="97" t="s">
+        <v>214</v>
+      </c>
+      <c r="X4" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="X4" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y4" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z4" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>95</v>
+      <c r="Y4" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z4" s="100" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA4" s="101" t="s">
+        <v>216</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>76</v>
@@ -3108,12 +3165,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>163</v>
+      <c r="B5" s="31" t="s">
+        <v>182</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -3125,14 +3182,14 @@
       <c r="F5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="90" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="90" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="3"/>
@@ -3164,23 +3221,23 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="W5" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="X5" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y5" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA5" s="8" t="s">
+      <c r="V5" s="8" t="s">
         <v>95</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="X5" s="102" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y5" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z5" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA5" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>107</v>
@@ -3204,12 +3261,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>163</v>
+      <c r="B6" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -3221,14 +3278,14 @@
       <c r="F6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="90" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="90" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="3"/>
@@ -3260,23 +3317,23 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="W6" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="X6" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y6" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z6" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA6" s="8" t="s">
+      <c r="V6" s="8" t="s">
         <v>95</v>
+      </c>
+      <c r="W6" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="X6" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y6" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z6" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA6" s="42" t="s">
+        <v>190</v>
       </c>
       <c r="AB6" s="3" t="s">
         <v>80</v>
@@ -3296,12 +3353,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>163</v>
+      <c r="B7" s="105" t="s">
+        <v>211</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -3313,14 +3370,14 @@
         <v>23</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="90" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="90" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="3"/>
@@ -3350,23 +3407,23 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="W7" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="X7" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y7" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z7" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>95</v>
+      </c>
+      <c r="W7" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="X7" s="109" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y7" s="106" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z7" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA7" s="108" t="s">
+        <v>221</v>
       </c>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
@@ -3382,12 +3439,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>163</v>
+      <c r="B8" s="111" t="s">
+        <v>211</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -3399,14 +3456,14 @@
         <v>23</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="90" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="90" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="3"/>
@@ -3438,23 +3495,23 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="W8" s="17" t="s">
+      <c r="V8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="W8" s="110" t="s">
+        <v>223</v>
+      </c>
+      <c r="X8" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="X8" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y8" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z8" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>95</v>
+      <c r="Y8" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z8" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA8" s="114" t="s">
+        <v>225</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>76</v>
@@ -3474,12 +3531,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>163</v>
+      <c r="B9" s="116" t="s">
+        <v>211</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -3491,14 +3548,14 @@
         <v>23</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="90" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="90" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="3"/>
@@ -3530,23 +3587,23 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="W9" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="X9" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y9" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z9" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA9" s="14" t="s">
+      <c r="V9" s="14" t="s">
         <v>144</v>
+      </c>
+      <c r="W9" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="X9" s="120" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y9" s="117" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z9" s="118" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA9" s="119" t="s">
+        <v>229</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>30</v>
@@ -3560,12 +3617,12 @@
       </c>
       <c r="AH9" s="5"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="66" t="s">
-        <v>163</v>
+      <c r="B10" s="122" t="s">
+        <v>211</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -3577,14 +3634,14 @@
         <v>23</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="90" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="90" t="s">
         <v>15</v>
       </c>
       <c r="K10" s="3"/>
@@ -3604,7 +3661,7 @@
       <c r="Q10" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="1" t="s">
         <v>142</v>
       </c>
       <c r="S10" s="5" t="s">
@@ -3614,23 +3671,23 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="W10" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="X10" s="67" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y10" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z10" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA10" s="14" t="s">
+      <c r="V10" s="14" t="s">
         <v>144</v>
+      </c>
+      <c r="W10" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="X10" s="126" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y10" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z10" s="124" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA10" s="125" t="s">
+        <v>233</v>
       </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -3642,12 +3699,12 @@
       </c>
       <c r="AH10" s="5"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>163</v>
+      <c r="B11" s="128" t="s">
+        <v>211</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -3659,14 +3716,14 @@
         <v>23</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="90" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="90" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="3"/>
@@ -3698,23 +3755,23 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="W11" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="X11" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y11" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z11" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA11" s="14" t="s">
+      <c r="V11" s="14" t="s">
         <v>144</v>
+      </c>
+      <c r="W11" s="127" t="s">
+        <v>235</v>
+      </c>
+      <c r="X11" s="132" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y11" s="129" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z11" s="130" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA11" s="131" t="s">
+        <v>237</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>30</v>
@@ -3728,12 +3785,12 @@
       </c>
       <c r="AH11" s="5"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="78" t="s">
-        <v>163</v>
+      <c r="B12" s="73" t="s">
+        <v>182</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -3745,7 +3802,7 @@
       <c r="F12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="90" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="2"/>
@@ -3784,23 +3841,23 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="W12" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="X12" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y12" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z12" s="81" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA12" s="14" t="s">
+      <c r="V12" s="14" t="s">
         <v>108</v>
+      </c>
+      <c r="W12" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="X12" s="133" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y12" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z12" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA12" s="77" t="s">
+        <v>194</v>
       </c>
       <c r="AB12" s="3" t="s">
         <v>30</v>
@@ -3814,12 +3871,12 @@
       </c>
       <c r="AH12" s="5"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="84" t="s">
-        <v>163</v>
+      <c r="B13" s="78" t="s">
+        <v>182</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -3831,7 +3888,7 @@
       <c r="F13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="90" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="2"/>
@@ -3858,7 +3915,7 @@
       <c r="Q13" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="1" t="s">
         <v>142</v>
       </c>
       <c r="S13" s="5" t="s">
@@ -3868,23 +3925,23 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="83" t="s">
-        <v>201</v>
-      </c>
-      <c r="W13" s="88" t="s">
-        <v>205</v>
-      </c>
-      <c r="X13" s="85" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y13" s="86" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z13" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA13" s="14" t="s">
+      <c r="V13" s="14" t="s">
         <v>108</v>
+      </c>
+      <c r="W13" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="X13" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y13" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z13" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA13" s="83" t="s">
+        <v>198</v>
       </c>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
@@ -3896,11 +3953,11 @@
       </c>
       <c r="AH13" s="5"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>152</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -3913,14 +3970,14 @@
       <c r="F14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="90" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="90" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="3"/>
@@ -3951,26 +4008,26 @@
       <c r="T14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="U14" s="19" t="s">
+      <c r="U14" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="V14" s="18" t="s">
+      <c r="V14" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="W14" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="W14" s="18" t="s">
+      <c r="X14" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="X14" s="18" t="s">
+      <c r="Y14" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="Y14" s="18" t="s">
+      <c r="Z14" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="Z14" s="18" t="s">
+      <c r="AA14" s="17" t="s">
         <v>154</v>
-      </c>
-      <c r="AA14" s="19" t="s">
-        <v>156</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>98</v>
@@ -3991,6 +4048,7 @@
       <c r="AH14" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="AI14" s="84"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="378">
   <si>
     <t>shipmentType</t>
   </si>
@@ -756,6 +756,411 @@
   </si>
   <si>
     <t>CEV1004708</t>
+  </si>
+  <si>
+    <t>51544480</t>
+  </si>
+  <si>
+    <t>07-29-2022</t>
+  </si>
+  <si>
+    <t>$745.58</t>
+  </si>
+  <si>
+    <t>CEV1004782</t>
+  </si>
+  <si>
+    <t>51544482</t>
+  </si>
+  <si>
+    <t>51544484</t>
+  </si>
+  <si>
+    <t>$1,167.72</t>
+  </si>
+  <si>
+    <t>CEV1004785</t>
+  </si>
+  <si>
+    <t>51544488</t>
+  </si>
+  <si>
+    <t>$1,238.72</t>
+  </si>
+  <si>
+    <t>CEV1004786</t>
+  </si>
+  <si>
+    <t>51544491</t>
+  </si>
+  <si>
+    <t>$3,260.88</t>
+  </si>
+  <si>
+    <t>CEV1004787</t>
+  </si>
+  <si>
+    <t>51544493</t>
+  </si>
+  <si>
+    <t>51544494</t>
+  </si>
+  <si>
+    <t>CEV1004789</t>
+  </si>
+  <si>
+    <t>51544496</t>
+  </si>
+  <si>
+    <t>51544497</t>
+  </si>
+  <si>
+    <t>$1,255.96</t>
+  </si>
+  <si>
+    <t>CEV1004791</t>
+  </si>
+  <si>
+    <t>51544499</t>
+  </si>
+  <si>
+    <t>51544500</t>
+  </si>
+  <si>
+    <t>$725.20</t>
+  </si>
+  <si>
+    <t>CEV1004793</t>
+  </si>
+  <si>
+    <t>51544503</t>
+  </si>
+  <si>
+    <t>$63.34</t>
+  </si>
+  <si>
+    <t>FCUPSG1012770</t>
+  </si>
+  <si>
+    <t>51544505</t>
+  </si>
+  <si>
+    <t>51544506</t>
+  </si>
+  <si>
+    <t>$81.81</t>
+  </si>
+  <si>
+    <t>FCUPSG1012772</t>
+  </si>
+  <si>
+    <t>51544508</t>
+  </si>
+  <si>
+    <t>51544543</t>
+  </si>
+  <si>
+    <t>08-02-2022</t>
+  </si>
+  <si>
+    <t>CEV1004794</t>
+  </si>
+  <si>
+    <t>51544546</t>
+  </si>
+  <si>
+    <t>51544547</t>
+  </si>
+  <si>
+    <t>CEV1004796</t>
+  </si>
+  <si>
+    <t>51544550</t>
+  </si>
+  <si>
+    <t>CEV1004797</t>
+  </si>
+  <si>
+    <t>51544553</t>
+  </si>
+  <si>
+    <t>CEV1004798</t>
+  </si>
+  <si>
+    <t>51544555</t>
+  </si>
+  <si>
+    <t>51544556</t>
+  </si>
+  <si>
+    <t>CEV1004800</t>
+  </si>
+  <si>
+    <t>51544558</t>
+  </si>
+  <si>
+    <t>51544559</t>
+  </si>
+  <si>
+    <t>CEV1004802</t>
+  </si>
+  <si>
+    <t>51544561</t>
+  </si>
+  <si>
+    <t>51544562</t>
+  </si>
+  <si>
+    <t>CEV1004804</t>
+  </si>
+  <si>
+    <t>51544565</t>
+  </si>
+  <si>
+    <t>$63.09</t>
+  </si>
+  <si>
+    <t>FCUPSG1012774</t>
+  </si>
+  <si>
+    <t>51544568</t>
+  </si>
+  <si>
+    <t>51544569</t>
+  </si>
+  <si>
+    <t>$81.47</t>
+  </si>
+  <si>
+    <t>FCUPSG1012776</t>
+  </si>
+  <si>
+    <t>51544573</t>
+  </si>
+  <si>
+    <t>51544574</t>
+  </si>
+  <si>
+    <t>$151.79</t>
+  </si>
+  <si>
+    <t>FCUPSG1012778</t>
+  </si>
+  <si>
+    <t>51544576</t>
+  </si>
+  <si>
+    <t>51544577</t>
+  </si>
+  <si>
+    <t>$105.29</t>
+  </si>
+  <si>
+    <t>FCUPSG1012780</t>
+  </si>
+  <si>
+    <t>51544579</t>
+  </si>
+  <si>
+    <t>51544580</t>
+  </si>
+  <si>
+    <t>$130.71</t>
+  </si>
+  <si>
+    <t>FCUPSG1012782</t>
+  </si>
+  <si>
+    <t>51544582</t>
+  </si>
+  <si>
+    <t>51545206</t>
+  </si>
+  <si>
+    <t>08-12-2022</t>
+  </si>
+  <si>
+    <t>CEV1004831</t>
+  </si>
+  <si>
+    <t>51545209</t>
+  </si>
+  <si>
+    <t>51545210</t>
+  </si>
+  <si>
+    <t>CEV1004833</t>
+  </si>
+  <si>
+    <t>51545213</t>
+  </si>
+  <si>
+    <t>CEV1004834</t>
+  </si>
+  <si>
+    <t>51545216</t>
+  </si>
+  <si>
+    <t>CEV1004835</t>
+  </si>
+  <si>
+    <t>51545218</t>
+  </si>
+  <si>
+    <t>51545221</t>
+  </si>
+  <si>
+    <t>CEV1004837</t>
+  </si>
+  <si>
+    <t>51545229</t>
+  </si>
+  <si>
+    <t>51545230</t>
+  </si>
+  <si>
+    <t>CEV1004839</t>
+  </si>
+  <si>
+    <t>51545239</t>
+  </si>
+  <si>
+    <t>08-15-2022</t>
+  </si>
+  <si>
+    <t>CEV1004841</t>
+  </si>
+  <si>
+    <t>51545241</t>
+  </si>
+  <si>
+    <t>51545243</t>
+  </si>
+  <si>
+    <t>CEV1004843</t>
+  </si>
+  <si>
+    <t>51545251</t>
+  </si>
+  <si>
+    <t>CEV1004845</t>
+  </si>
+  <si>
+    <t>51545253</t>
+  </si>
+  <si>
+    <t>51545254</t>
+  </si>
+  <si>
+    <t>CEV1004847</t>
+  </si>
+  <si>
+    <t>51545256</t>
+  </si>
+  <si>
+    <t>51545257</t>
+  </si>
+  <si>
+    <t>CEV1004849</t>
+  </si>
+  <si>
+    <t>51545259</t>
+  </si>
+  <si>
+    <t>51545260</t>
+  </si>
+  <si>
+    <t>CEV1004851</t>
+  </si>
+  <si>
+    <t>51545263</t>
+  </si>
+  <si>
+    <t>$62.83</t>
+  </si>
+  <si>
+    <t>FCUPSG1012826</t>
+  </si>
+  <si>
+    <t>51545265</t>
+  </si>
+  <si>
+    <t>51545266</t>
+  </si>
+  <si>
+    <t>$81.14</t>
+  </si>
+  <si>
+    <t>FCUPSG1012828</t>
+  </si>
+  <si>
+    <t>51545268</t>
+  </si>
+  <si>
+    <t>51545269</t>
+  </si>
+  <si>
+    <t>$151.24</t>
+  </si>
+  <si>
+    <t>FCUPSG1012830</t>
+  </si>
+  <si>
+    <t>51545271</t>
+  </si>
+  <si>
+    <t>51545272</t>
+  </si>
+  <si>
+    <t>$104.88</t>
+  </si>
+  <si>
+    <t>FCUPSG1012832</t>
+  </si>
+  <si>
+    <t>51545274</t>
+  </si>
+  <si>
+    <t>51545275</t>
+  </si>
+  <si>
+    <t>$130.19</t>
+  </si>
+  <si>
+    <t>FCUPSG1012834</t>
+  </si>
+  <si>
+    <t>51545277</t>
+  </si>
+  <si>
+    <t>51545461</t>
+  </si>
+  <si>
+    <t>08-16-2022</t>
+  </si>
+  <si>
+    <t>CEV1004854</t>
+  </si>
+  <si>
+    <t>51545463</t>
+  </si>
+  <si>
+    <t>51545464</t>
+  </si>
+  <si>
+    <t>CEV1004856</t>
+  </si>
+  <si>
+    <t>51545468</t>
+  </si>
+  <si>
+    <t>CEV1004857</t>
+  </si>
+  <si>
+    <t>51545477</t>
+  </si>
+  <si>
+    <t>CEV1004858</t>
   </si>
 </sst>
 </file>
@@ -791,7 +1196,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="175">
+  <fills count="651">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1663,8 +2068,2388 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="105">
+  <borders count="581">
     <border>
       <left/>
       <right/>
@@ -2098,6 +4883,1672 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2106,7 +6557,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="377">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2245,7 +6696,245 @@
     <xf applyBorder="true" applyFill="true" borderId="98" fillId="168" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="100" fillId="170" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="102" fillId="172" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="104" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="104" fillId="174" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="106" fillId="176" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="108" fillId="178" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="110" fillId="180" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="112" fillId="182" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="114" fillId="184" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="116" fillId="186" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="118" fillId="188" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="120" fillId="190" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="122" fillId="192" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="124" fillId="194" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="126" fillId="196" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="128" fillId="198" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="130" fillId="200" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="132" fillId="202" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="134" fillId="204" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="136" fillId="206" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="138" fillId="208" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="140" fillId="210" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="142" fillId="212" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="144" fillId="214" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="146" fillId="216" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="148" fillId="218" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="150" fillId="220" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="152" fillId="222" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="154" fillId="224" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="156" fillId="226" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="158" fillId="228" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="160" fillId="230" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="162" fillId="232" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="164" fillId="234" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="166" fillId="236" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="168" fillId="238" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="170" fillId="240" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="172" fillId="242" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="174" fillId="244" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="176" fillId="246" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="178" fillId="248" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="180" fillId="250" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="182" fillId="252" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="184" fillId="254" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="186" fillId="256" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="188" fillId="258" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="190" fillId="260" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="192" fillId="262" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="194" fillId="264" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="196" fillId="266" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="198" fillId="268" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="200" fillId="270" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="202" fillId="272" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="204" fillId="274" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="206" fillId="276" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="208" fillId="278" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="210" fillId="280" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="212" fillId="282" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="214" fillId="284" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="216" fillId="286" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="218" fillId="288" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="220" fillId="290" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="222" fillId="292" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="224" fillId="294" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="226" fillId="296" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="228" fillId="298" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="230" fillId="300" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="232" fillId="302" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="234" fillId="304" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="236" fillId="306" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="238" fillId="308" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="240" fillId="310" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="242" fillId="312" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="244" fillId="314" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="246" fillId="316" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="248" fillId="318" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="250" fillId="320" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="252" fillId="322" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="254" fillId="324" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="256" fillId="326" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="258" fillId="328" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="260" fillId="330" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="262" fillId="332" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="264" fillId="334" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="266" fillId="336" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="268" fillId="338" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="270" fillId="340" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="272" fillId="342" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="274" fillId="344" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="276" fillId="346" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="278" fillId="348" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="280" fillId="350" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="282" fillId="352" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="284" fillId="354" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="286" fillId="356" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="288" fillId="358" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="290" fillId="360" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="292" fillId="362" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="294" fillId="364" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="296" fillId="366" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="298" fillId="368" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="300" fillId="370" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="302" fillId="372" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="304" fillId="374" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="306" fillId="376" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="308" fillId="378" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="310" fillId="380" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="312" fillId="382" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="314" fillId="384" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="316" fillId="386" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="318" fillId="388" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="320" fillId="390" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="322" fillId="392" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="324" fillId="394" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="326" fillId="396" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="328" fillId="398" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="330" fillId="400" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="332" fillId="402" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="334" fillId="404" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="336" fillId="406" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="338" fillId="408" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="340" fillId="410" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="342" fillId="412" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="344" fillId="414" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="346" fillId="416" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="348" fillId="418" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="350" fillId="420" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="352" fillId="422" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="354" fillId="424" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="356" fillId="426" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="358" fillId="428" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="360" fillId="430" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="362" fillId="432" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="364" fillId="434" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="366" fillId="436" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="368" fillId="438" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="370" fillId="440" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="372" fillId="442" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="374" fillId="444" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="376" fillId="446" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="378" fillId="448" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="380" fillId="450" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="382" fillId="452" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="384" fillId="454" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="386" fillId="456" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="388" fillId="458" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="390" fillId="460" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="392" fillId="462" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="394" fillId="464" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="396" fillId="466" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="398" fillId="468" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="400" fillId="470" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="402" fillId="472" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="404" fillId="474" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="406" fillId="476" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="408" fillId="478" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="410" fillId="480" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="412" fillId="482" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="414" fillId="484" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="416" fillId="486" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="418" fillId="488" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="420" fillId="490" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="422" fillId="492" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="424" fillId="494" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="426" fillId="496" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="428" fillId="498" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="430" fillId="500" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="432" fillId="502" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="434" fillId="504" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="436" fillId="506" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="438" fillId="508" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="440" fillId="510" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="442" fillId="512" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="444" fillId="514" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="446" fillId="516" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="448" fillId="518" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="450" fillId="520" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="452" fillId="522" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="454" fillId="524" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="456" fillId="526" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="458" fillId="528" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="460" fillId="530" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="462" fillId="532" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="464" fillId="534" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="466" fillId="536" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="468" fillId="538" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="470" fillId="540" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="472" fillId="542" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="474" fillId="544" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="476" fillId="546" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="478" fillId="548" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="480" fillId="550" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="482" fillId="552" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="484" fillId="554" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="486" fillId="556" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="488" fillId="558" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="490" fillId="560" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="492" fillId="562" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="494" fillId="564" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="496" fillId="566" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="498" fillId="568" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="500" fillId="570" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="502" fillId="572" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="504" fillId="574" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="506" fillId="576" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="508" fillId="578" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="510" fillId="580" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="512" fillId="582" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="514" fillId="584" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="516" fillId="586" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="518" fillId="588" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="520" fillId="590" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="522" fillId="592" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="524" fillId="594" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="526" fillId="596" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="528" fillId="598" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="530" fillId="600" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="532" fillId="602" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="534" fillId="604" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="536" fillId="606" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="538" fillId="608" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="540" fillId="610" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="542" fillId="612" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="544" fillId="614" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="546" fillId="616" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="548" fillId="618" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="550" fillId="620" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="552" fillId="622" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="554" fillId="624" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="556" fillId="626" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="558" fillId="628" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="560" fillId="630" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="562" fillId="632" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="564" fillId="634" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="566" fillId="636" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="568" fillId="638" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="570" fillId="640" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="572" fillId="642" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="574" fillId="644" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="576" fillId="646" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="578" fillId="648" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="650" borderId="580" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2893,8 +7582,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="92" t="s">
-        <v>211</v>
+      <c r="B2" s="357" t="s">
+        <v>369</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -2948,20 +7637,20 @@
       <c r="V2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="91" t="s">
-        <v>210</v>
-      </c>
-      <c r="X2" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y2" s="93" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z2" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA2" s="95" t="s">
-        <v>212</v>
+      <c r="W2" s="356" t="s">
+        <v>368</v>
+      </c>
+      <c r="X2" s="361" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y2" s="358" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z2" s="359" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA2" s="360" t="s">
+        <v>370</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>30</v>
@@ -2981,8 +7670,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="135" t="s">
-        <v>211</v>
+      <c r="B3" s="363" t="s">
+        <v>369</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -3038,20 +7727,20 @@
       <c r="V3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W3" s="134" t="s">
-        <v>240</v>
+      <c r="W3" s="362" t="s">
+        <v>372</v>
       </c>
       <c r="X3" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="Y3" s="136" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z3" s="137" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA3" s="138" t="s">
-        <v>242</v>
+      <c r="Y3" s="364" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z3" s="365" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA3" s="366" t="s">
+        <v>373</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>76</v>
@@ -3077,8 +7766,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="98" t="s">
-        <v>211</v>
+      <c r="B4" s="368" t="s">
+        <v>369</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -3132,20 +7821,20 @@
       <c r="V4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W4" s="97" t="s">
-        <v>214</v>
+      <c r="W4" s="367" t="s">
+        <v>374</v>
       </c>
       <c r="X4" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="Y4" s="99" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z4" s="100" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA4" s="101" t="s">
-        <v>216</v>
+      <c r="Y4" s="369" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z4" s="370" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA4" s="371" t="s">
+        <v>375</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>76</v>
@@ -3169,8 +7858,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>182</v>
+      <c r="B5" s="373" t="s">
+        <v>369</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -3224,20 +7913,20 @@
       <c r="V5" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W5" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="X5" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y5" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z5" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA5" s="36" t="s">
-        <v>187</v>
+      <c r="W5" s="372" t="s">
+        <v>376</v>
+      </c>
+      <c r="X5" s="308" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y5" s="374" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z5" s="375" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA5" s="376" t="s">
+        <v>377</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>107</v>
@@ -3265,8 +7954,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>182</v>
+      <c r="B6" s="310" t="s">
+        <v>332</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -3320,20 +8009,20 @@
       <c r="V6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W6" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="X6" s="103" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y6" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z6" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA6" s="42" t="s">
-        <v>190</v>
+      <c r="W6" s="309" t="s">
+        <v>340</v>
+      </c>
+      <c r="X6" s="314" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y6" s="311" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z6" s="312" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA6" s="313" t="s">
+        <v>341</v>
       </c>
       <c r="AB6" s="3" t="s">
         <v>80</v>
@@ -3357,8 +8046,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="105" t="s">
-        <v>211</v>
+      <c r="B7" s="316" t="s">
+        <v>332</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -3410,20 +8099,20 @@
       <c r="V7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W7" s="104" t="s">
-        <v>219</v>
-      </c>
-      <c r="X7" s="109" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y7" s="106" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z7" s="107" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA7" s="108" t="s">
-        <v>221</v>
+      <c r="W7" s="315" t="s">
+        <v>343</v>
+      </c>
+      <c r="X7" s="320" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y7" s="317" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z7" s="318" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA7" s="319" t="s">
+        <v>344</v>
       </c>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
@@ -3443,8 +8132,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="111" t="s">
-        <v>211</v>
+      <c r="B8" s="322" t="s">
+        <v>332</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -3498,20 +8187,20 @@
       <c r="V8" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W8" s="110" t="s">
-        <v>223</v>
+      <c r="W8" s="321" t="s">
+        <v>346</v>
       </c>
       <c r="X8" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="Y8" s="112" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z8" s="113" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA8" s="114" t="s">
-        <v>225</v>
+      <c r="Y8" s="323" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z8" s="324" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA8" s="325" t="s">
+        <v>347</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>76</v>
@@ -3535,8 +8224,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="116" t="s">
-        <v>211</v>
+      <c r="B9" s="327" t="s">
+        <v>332</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -3590,20 +8279,20 @@
       <c r="V9" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="W9" s="115" t="s">
-        <v>226</v>
-      </c>
-      <c r="X9" s="120" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y9" s="117" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z9" s="118" t="s">
+      <c r="W9" s="326" t="s">
+        <v>348</v>
+      </c>
+      <c r="X9" s="331" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y9" s="328" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z9" s="329" t="s">
         <v>228</v>
       </c>
-      <c r="AA9" s="119" t="s">
-        <v>229</v>
+      <c r="AA9" s="330" t="s">
+        <v>350</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>30</v>
@@ -3621,8 +8310,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="122" t="s">
-        <v>211</v>
+      <c r="B10" s="333" t="s">
+        <v>332</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -3674,20 +8363,20 @@
       <c r="V10" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="W10" s="121" t="s">
-        <v>231</v>
-      </c>
-      <c r="X10" s="126" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y10" s="123" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z10" s="124" t="s">
+      <c r="W10" s="332" t="s">
+        <v>352</v>
+      </c>
+      <c r="X10" s="337" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y10" s="334" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z10" s="335" t="s">
         <v>228</v>
       </c>
-      <c r="AA10" s="125" t="s">
-        <v>233</v>
+      <c r="AA10" s="336" t="s">
+        <v>354</v>
       </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -3703,8 +8392,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="128" t="s">
-        <v>211</v>
+      <c r="B11" s="339" t="s">
+        <v>332</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -3758,20 +8447,20 @@
       <c r="V11" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="W11" s="127" t="s">
-        <v>235</v>
-      </c>
-      <c r="X11" s="132" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y11" s="129" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z11" s="130" t="s">
+      <c r="W11" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="X11" s="343" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y11" s="340" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z11" s="341" t="s">
         <v>228</v>
       </c>
-      <c r="AA11" s="131" t="s">
-        <v>237</v>
+      <c r="AA11" s="342" t="s">
+        <v>358</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>30</v>
@@ -3789,8 +8478,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="73" t="s">
-        <v>182</v>
+      <c r="B12" s="345" t="s">
+        <v>332</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -3844,20 +8533,20 @@
       <c r="V12" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="W12" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="X12" s="133" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y12" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z12" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA12" s="77" t="s">
-        <v>194</v>
+      <c r="W12" s="344" t="s">
+        <v>360</v>
+      </c>
+      <c r="X12" s="349" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y12" s="346" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z12" s="347" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA12" s="348" t="s">
+        <v>362</v>
       </c>
       <c r="AB12" s="3" t="s">
         <v>30</v>
@@ -3875,8 +8564,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="78" t="s">
-        <v>182</v>
+      <c r="B13" s="351" t="s">
+        <v>332</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -3928,20 +8617,20 @@
       <c r="V13" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="W13" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="X13" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y13" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z13" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA13" s="83" t="s">
-        <v>198</v>
+      <c r="W13" s="350" t="s">
+        <v>364</v>
+      </c>
+      <c r="X13" s="355" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y13" s="352" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z13" s="353" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA13" s="354" t="s">
+        <v>366</v>
       </c>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>

--- a/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="382">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1161,6 +1161,18 @@
   </si>
   <si>
     <t>CEV1004858</t>
+  </si>
+  <si>
+    <t>51545942</t>
+  </si>
+  <si>
+    <t>08-20-2022</t>
+  </si>
+  <si>
+    <t>$718.28</t>
+  </si>
+  <si>
+    <t>CEV1004877</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1208,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="651">
+  <fills count="661">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4448,8 +4460,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="581">
+  <borders count="591">
     <border>
       <left/>
       <right/>
@@ -6549,6 +6611,41 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6557,7 +6654,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="377">
+  <cellXfs count="382">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -6934,7 +7031,12 @@
     <xf applyBorder="true" applyFill="true" borderId="574" fillId="644" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="576" fillId="646" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="578" fillId="648" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="650" borderId="580" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="580" fillId="650" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="582" fillId="652" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="584" fillId="654" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="586" fillId="656" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="588" fillId="658" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="660" borderId="590" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -7582,8 +7684,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="357" t="s">
-        <v>369</v>
+      <c r="B2" s="378" t="s">
+        <v>379</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -7637,20 +7739,20 @@
       <c r="V2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="356" t="s">
-        <v>368</v>
+      <c r="W2" s="377" t="s">
+        <v>378</v>
       </c>
       <c r="X2" s="361" t="s">
         <v>371</v>
       </c>
-      <c r="Y2" s="358" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z2" s="359" t="s">
-        <v>370</v>
-      </c>
-      <c r="AA2" s="360" t="s">
-        <v>370</v>
+      <c r="Y2" s="379" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z2" s="380" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA2" s="381" t="s">
+        <v>381</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>30</v>

--- a/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="465">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1173,6 +1173,255 @@
   </si>
   <si>
     <t>CEV1004877</t>
+  </si>
+  <si>
+    <t>51546337</t>
+  </si>
+  <si>
+    <t>08-24-2022</t>
+  </si>
+  <si>
+    <t>CEV1004915</t>
+  </si>
+  <si>
+    <t>51546341</t>
+  </si>
+  <si>
+    <t>51546342</t>
+  </si>
+  <si>
+    <t>$1,123.81</t>
+  </si>
+  <si>
+    <t>CEV1004917</t>
+  </si>
+  <si>
+    <t>51546343</t>
+  </si>
+  <si>
+    <t>CEV1004918</t>
+  </si>
+  <si>
+    <t>51546345</t>
+  </si>
+  <si>
+    <t>51546346</t>
+  </si>
+  <si>
+    <t>CEV1004920</t>
+  </si>
+  <si>
+    <t>51546350</t>
+  </si>
+  <si>
+    <t>$1,191.80</t>
+  </si>
+  <si>
+    <t>CEV1004921</t>
+  </si>
+  <si>
+    <t>51546353</t>
+  </si>
+  <si>
+    <t>$3,136.68</t>
+  </si>
+  <si>
+    <t>CEV1004922</t>
+  </si>
+  <si>
+    <t>51546355</t>
+  </si>
+  <si>
+    <t>51546356</t>
+  </si>
+  <si>
+    <t>CEV1004924</t>
+  </si>
+  <si>
+    <t>51546358</t>
+  </si>
+  <si>
+    <t>51546361</t>
+  </si>
+  <si>
+    <t>$1,209.04</t>
+  </si>
+  <si>
+    <t>CEV1004927</t>
+  </si>
+  <si>
+    <t>51546363</t>
+  </si>
+  <si>
+    <t>51546364</t>
+  </si>
+  <si>
+    <t>$697.90</t>
+  </si>
+  <si>
+    <t>CEV1004929</t>
+  </si>
+  <si>
+    <t>51546367</t>
+  </si>
+  <si>
+    <t>$62.70</t>
+  </si>
+  <si>
+    <t>FCUPSG1012887</t>
+  </si>
+  <si>
+    <t>51546369</t>
+  </si>
+  <si>
+    <t>51546370</t>
+  </si>
+  <si>
+    <t>$80.98</t>
+  </si>
+  <si>
+    <t>FCUPSG1012889</t>
+  </si>
+  <si>
+    <t>51546372</t>
+  </si>
+  <si>
+    <t>51546373</t>
+  </si>
+  <si>
+    <t>$150.96</t>
+  </si>
+  <si>
+    <t>FCUPSG1012891</t>
+  </si>
+  <si>
+    <t>51546375</t>
+  </si>
+  <si>
+    <t>51546376</t>
+  </si>
+  <si>
+    <t>$104.66</t>
+  </si>
+  <si>
+    <t>FCUPSG1012893</t>
+  </si>
+  <si>
+    <t>51546378</t>
+  </si>
+  <si>
+    <t>51546379</t>
+  </si>
+  <si>
+    <t>$129.93</t>
+  </si>
+  <si>
+    <t>FCUPSG1012895</t>
+  </si>
+  <si>
+    <t>51546381</t>
+  </si>
+  <si>
+    <t>51546499</t>
+  </si>
+  <si>
+    <t>08-25-2022</t>
+  </si>
+  <si>
+    <t>CEV1004938</t>
+  </si>
+  <si>
+    <t>51546504</t>
+  </si>
+  <si>
+    <t>51546506</t>
+  </si>
+  <si>
+    <t>CEV1004940</t>
+  </si>
+  <si>
+    <t>51546514</t>
+  </si>
+  <si>
+    <t>CEV1004942</t>
+  </si>
+  <si>
+    <t>51546517</t>
+  </si>
+  <si>
+    <t>CEV1004943</t>
+  </si>
+  <si>
+    <t>51546519</t>
+  </si>
+  <si>
+    <t>51546520</t>
+  </si>
+  <si>
+    <t>CEV1004945</t>
+  </si>
+  <si>
+    <t>51546522</t>
+  </si>
+  <si>
+    <t>51546523</t>
+  </si>
+  <si>
+    <t>CEV1004947</t>
+  </si>
+  <si>
+    <t>51546525</t>
+  </si>
+  <si>
+    <t>51546526</t>
+  </si>
+  <si>
+    <t>CEV1004949</t>
+  </si>
+  <si>
+    <t>51546529</t>
+  </si>
+  <si>
+    <t>FCUPSG1012906</t>
+  </si>
+  <si>
+    <t>51546531</t>
+  </si>
+  <si>
+    <t>51546532</t>
+  </si>
+  <si>
+    <t>FCUPSG1012908</t>
+  </si>
+  <si>
+    <t>51546535</t>
+  </si>
+  <si>
+    <t>51546536</t>
+  </si>
+  <si>
+    <t>FCUPSG1012910</t>
+  </si>
+  <si>
+    <t>51546538</t>
+  </si>
+  <si>
+    <t>51546539</t>
+  </si>
+  <si>
+    <t>FCUPSG1012912</t>
+  </si>
+  <si>
+    <t>51546541</t>
+  </si>
+  <si>
+    <t>51546542</t>
+  </si>
+  <si>
+    <t>FCUPSG1012914</t>
+  </si>
+  <si>
+    <t>51546544</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1457,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="661">
+  <fills count="959">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4510,8 +4759,1498 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="591">
+  <borders count="889">
     <border>
       <left/>
       <right/>
@@ -6646,6 +8385,1049 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6654,7 +9436,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="531">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -7036,7 +9818,156 @@
     <xf applyBorder="true" applyFill="true" borderId="584" fillId="654" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="586" fillId="656" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="588" fillId="658" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="660" borderId="590" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="590" fillId="660" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="592" fillId="662" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="594" fillId="664" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="596" fillId="666" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="598" fillId="668" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="600" fillId="670" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="602" fillId="672" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="604" fillId="674" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="606" fillId="676" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="608" fillId="678" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="610" fillId="680" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="612" fillId="682" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="614" fillId="684" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="616" fillId="686" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="618" fillId="688" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="620" fillId="690" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="622" fillId="692" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="624" fillId="694" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="626" fillId="696" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="628" fillId="698" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="630" fillId="700" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="632" fillId="702" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="634" fillId="704" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="636" fillId="706" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="638" fillId="708" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="640" fillId="710" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="642" fillId="712" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="644" fillId="714" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="646" fillId="716" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="648" fillId="718" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="650" fillId="720" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="652" fillId="722" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="654" fillId="724" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="656" fillId="726" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="658" fillId="728" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="660" fillId="730" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="662" fillId="732" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="664" fillId="734" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="666" fillId="736" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="668" fillId="738" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="670" fillId="740" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="672" fillId="742" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="674" fillId="744" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="676" fillId="746" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="678" fillId="748" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="680" fillId="750" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="682" fillId="752" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="684" fillId="754" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="686" fillId="756" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="688" fillId="758" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="690" fillId="760" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="692" fillId="762" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="694" fillId="764" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="696" fillId="766" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="698" fillId="768" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="700" fillId="770" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="702" fillId="772" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="704" fillId="774" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="706" fillId="776" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="708" fillId="778" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="710" fillId="780" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="712" fillId="782" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="714" fillId="784" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="716" fillId="786" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="718" fillId="788" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="720" fillId="790" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="722" fillId="792" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="724" fillId="794" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="726" fillId="796" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="728" fillId="798" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="730" fillId="800" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="732" fillId="802" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="734" fillId="804" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="736" fillId="806" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="738" fillId="808" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="740" fillId="810" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="742" fillId="812" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="744" fillId="814" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="746" fillId="816" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="748" fillId="818" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="750" fillId="820" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="752" fillId="822" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="754" fillId="824" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="756" fillId="826" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="758" fillId="828" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="760" fillId="830" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="762" fillId="832" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="764" fillId="834" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="766" fillId="836" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="768" fillId="838" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="770" fillId="840" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="772" fillId="842" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="774" fillId="844" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="776" fillId="846" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="778" fillId="848" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="780" fillId="850" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="782" fillId="852" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="784" fillId="854" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="786" fillId="856" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="788" fillId="858" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="790" fillId="860" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="792" fillId="862" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="794" fillId="864" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="796" fillId="866" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="798" fillId="868" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="800" fillId="870" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="802" fillId="872" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="804" fillId="874" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="806" fillId="876" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="808" fillId="878" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="810" fillId="880" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="812" fillId="882" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="814" fillId="884" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="816" fillId="886" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="818" fillId="888" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="820" fillId="890" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="822" fillId="892" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="824" fillId="894" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="826" fillId="896" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="828" fillId="898" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="830" fillId="900" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="832" fillId="902" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="834" fillId="904" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="836" fillId="906" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="838" fillId="908" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="840" fillId="910" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="842" fillId="912" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="844" fillId="914" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="846" fillId="916" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="848" fillId="918" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="850" fillId="920" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="852" fillId="922" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="854" fillId="924" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="856" fillId="926" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="858" fillId="928" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="860" fillId="930" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="862" fillId="932" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="864" fillId="934" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="866" fillId="936" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="868" fillId="938" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="870" fillId="940" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="872" fillId="942" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="874" fillId="944" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="876" fillId="946" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="878" fillId="948" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="880" fillId="950" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="882" fillId="952" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="884" fillId="954" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="886" fillId="956" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="958" borderId="888" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -7684,8 +10615,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="378" t="s">
-        <v>379</v>
+      <c r="B2" s="463" t="s">
+        <v>432</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -7739,20 +10670,20 @@
       <c r="V2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="377" t="s">
-        <v>378</v>
-      </c>
-      <c r="X2" s="361" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y2" s="379" t="s">
+      <c r="W2" s="462" t="s">
+        <v>431</v>
+      </c>
+      <c r="X2" s="467" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y2" s="464" t="s">
         <v>380</v>
       </c>
-      <c r="Z2" s="380" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA2" s="381" t="s">
-        <v>381</v>
+      <c r="Z2" s="465" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA2" s="466" t="s">
+        <v>433</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>30</v>
@@ -7772,8 +10703,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="363" t="s">
-        <v>369</v>
+      <c r="B3" s="469" t="s">
+        <v>432</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -7829,20 +10760,20 @@
       <c r="V3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W3" s="362" t="s">
-        <v>372</v>
+      <c r="W3" s="468" t="s">
+        <v>435</v>
       </c>
       <c r="X3" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="Y3" s="364" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z3" s="365" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA3" s="366" t="s">
-        <v>373</v>
+      <c r="Y3" s="470" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z3" s="471" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA3" s="472" t="s">
+        <v>436</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>76</v>
@@ -7868,8 +10799,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="368" t="s">
-        <v>369</v>
+      <c r="B4" s="474" t="s">
+        <v>432</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -7923,20 +10854,20 @@
       <c r="V4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W4" s="367" t="s">
-        <v>374</v>
+      <c r="W4" s="473" t="s">
+        <v>437</v>
       </c>
       <c r="X4" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="Y4" s="369" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z4" s="370" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA4" s="371" t="s">
-        <v>375</v>
+      <c r="Y4" s="475" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z4" s="476" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA4" s="477" t="s">
+        <v>438</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>76</v>
@@ -7960,8 +10891,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="373" t="s">
-        <v>369</v>
+      <c r="B5" s="479" t="s">
+        <v>432</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -8015,20 +10946,20 @@
       <c r="V5" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W5" s="372" t="s">
-        <v>376</v>
-      </c>
-      <c r="X5" s="308" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y5" s="374" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z5" s="375" t="s">
-        <v>377</v>
-      </c>
-      <c r="AA5" s="376" t="s">
-        <v>377</v>
+      <c r="W5" s="478" t="s">
+        <v>439</v>
+      </c>
+      <c r="X5" s="483" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y5" s="480" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z5" s="481" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA5" s="482" t="s">
+        <v>440</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>107</v>
@@ -8056,8 +10987,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="310" t="s">
-        <v>332</v>
+      <c r="B6" s="485" t="s">
+        <v>432</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -8111,20 +11042,20 @@
       <c r="V6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W6" s="309" t="s">
-        <v>340</v>
-      </c>
-      <c r="X6" s="314" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y6" s="311" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z6" s="312" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA6" s="313" t="s">
-        <v>341</v>
+      <c r="W6" s="484" t="s">
+        <v>442</v>
+      </c>
+      <c r="X6" s="489" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y6" s="486" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z6" s="487" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA6" s="488" t="s">
+        <v>443</v>
       </c>
       <c r="AB6" s="3" t="s">
         <v>80</v>
@@ -8148,8 +11079,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="316" t="s">
-        <v>332</v>
+      <c r="B7" s="491" t="s">
+        <v>432</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -8201,20 +11132,20 @@
       <c r="V7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W7" s="315" t="s">
-        <v>343</v>
-      </c>
-      <c r="X7" s="320" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y7" s="317" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z7" s="318" t="s">
-        <v>344</v>
-      </c>
-      <c r="AA7" s="319" t="s">
-        <v>344</v>
+      <c r="W7" s="490" t="s">
+        <v>445</v>
+      </c>
+      <c r="X7" s="495" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y7" s="492" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z7" s="493" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA7" s="494" t="s">
+        <v>446</v>
       </c>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
@@ -8234,8 +11165,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="322" t="s">
-        <v>332</v>
+      <c r="B8" s="497" t="s">
+        <v>432</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -8289,20 +11220,20 @@
       <c r="V8" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W8" s="321" t="s">
-        <v>346</v>
+      <c r="W8" s="496" t="s">
+        <v>448</v>
       </c>
       <c r="X8" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="Y8" s="323" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z8" s="324" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA8" s="325" t="s">
-        <v>347</v>
+      <c r="Y8" s="498" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z8" s="499" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA8" s="500" t="s">
+        <v>449</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>76</v>
@@ -8326,8 +11257,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="327" t="s">
-        <v>332</v>
+      <c r="B9" s="502" t="s">
+        <v>432</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -8381,20 +11312,20 @@
       <c r="V9" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="W9" s="326" t="s">
-        <v>348</v>
-      </c>
-      <c r="X9" s="331" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y9" s="328" t="s">
-        <v>349</v>
-      </c>
-      <c r="Z9" s="329" t="s">
+      <c r="W9" s="501" t="s">
+        <v>450</v>
+      </c>
+      <c r="X9" s="506" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y9" s="503" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z9" s="504" t="s">
         <v>228</v>
       </c>
-      <c r="AA9" s="330" t="s">
-        <v>350</v>
+      <c r="AA9" s="505" t="s">
+        <v>451</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>30</v>
@@ -8412,8 +11343,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="333" t="s">
-        <v>332</v>
+      <c r="B10" s="508" t="s">
+        <v>432</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -8465,20 +11396,20 @@
       <c r="V10" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="W10" s="332" t="s">
-        <v>352</v>
-      </c>
-      <c r="X10" s="337" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y10" s="334" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z10" s="335" t="s">
+      <c r="W10" s="507" t="s">
+        <v>453</v>
+      </c>
+      <c r="X10" s="512" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y10" s="509" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z10" s="510" t="s">
         <v>228</v>
       </c>
-      <c r="AA10" s="336" t="s">
-        <v>354</v>
+      <c r="AA10" s="511" t="s">
+        <v>454</v>
       </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -8494,8 +11425,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="339" t="s">
-        <v>332</v>
+      <c r="B11" s="514" t="s">
+        <v>432</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -8549,20 +11480,20 @@
       <c r="V11" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="W11" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="X11" s="343" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y11" s="340" t="s">
-        <v>357</v>
-      </c>
-      <c r="Z11" s="341" t="s">
+      <c r="W11" s="513" t="s">
+        <v>456</v>
+      </c>
+      <c r="X11" s="518" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y11" s="515" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z11" s="516" t="s">
         <v>228</v>
       </c>
-      <c r="AA11" s="342" t="s">
-        <v>358</v>
+      <c r="AA11" s="517" t="s">
+        <v>457</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>30</v>
@@ -8580,8 +11511,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="345" t="s">
-        <v>332</v>
+      <c r="B12" s="520" t="s">
+        <v>432</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -8635,20 +11566,20 @@
       <c r="V12" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="W12" s="344" t="s">
-        <v>360</v>
-      </c>
-      <c r="X12" s="349" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y12" s="346" t="s">
-        <v>361</v>
-      </c>
-      <c r="Z12" s="347" t="s">
+      <c r="W12" s="519" t="s">
+        <v>459</v>
+      </c>
+      <c r="X12" s="524" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y12" s="521" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z12" s="522" t="s">
         <v>228</v>
       </c>
-      <c r="AA12" s="348" t="s">
-        <v>362</v>
+      <c r="AA12" s="523" t="s">
+        <v>460</v>
       </c>
       <c r="AB12" s="3" t="s">
         <v>30</v>
@@ -8666,8 +11597,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="351" t="s">
-        <v>332</v>
+      <c r="B13" s="526" t="s">
+        <v>432</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -8719,20 +11650,20 @@
       <c r="V13" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="W13" s="350" t="s">
-        <v>364</v>
-      </c>
-      <c r="X13" s="355" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y13" s="352" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z13" s="353" t="s">
+      <c r="W13" s="525" t="s">
+        <v>462</v>
+      </c>
+      <c r="X13" s="530" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y13" s="527" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z13" s="528" t="s">
         <v>228</v>
       </c>
-      <c r="AA13" s="354" t="s">
-        <v>366</v>
+      <c r="AA13" s="529" t="s">
+        <v>463</v>
       </c>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>

--- a/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="530">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1422,6 +1422,201 @@
   </si>
   <si>
     <t>51546544</t>
+  </si>
+  <si>
+    <t>51547319</t>
+  </si>
+  <si>
+    <t>09-01-2022</t>
+  </si>
+  <si>
+    <t>$741.03</t>
+  </si>
+  <si>
+    <t>CEV1005023</t>
+  </si>
+  <si>
+    <t>51547322</t>
+  </si>
+  <si>
+    <t>51547323</t>
+  </si>
+  <si>
+    <t>$1,160.40</t>
+  </si>
+  <si>
+    <t>CEV1005025</t>
+  </si>
+  <si>
+    <t>51547326</t>
+  </si>
+  <si>
+    <t>$1,230.90</t>
+  </si>
+  <si>
+    <t>CEV1005026</t>
+  </si>
+  <si>
+    <t>51547328</t>
+  </si>
+  <si>
+    <t>$3,240.18</t>
+  </si>
+  <si>
+    <t>CEV1005027</t>
+  </si>
+  <si>
+    <t>51547330</t>
+  </si>
+  <si>
+    <t>CEV1005028</t>
+  </si>
+  <si>
+    <t>51547332</t>
+  </si>
+  <si>
+    <t>51547333</t>
+  </si>
+  <si>
+    <t>$1,248.14</t>
+  </si>
+  <si>
+    <t>CEV1005030</t>
+  </si>
+  <si>
+    <t>51547335</t>
+  </si>
+  <si>
+    <t>51547336</t>
+  </si>
+  <si>
+    <t>$720.65</t>
+  </si>
+  <si>
+    <t>CEV1005032</t>
+  </si>
+  <si>
+    <t>51547339</t>
+  </si>
+  <si>
+    <t>FCUPSG1012981</t>
+  </si>
+  <si>
+    <t>51547341</t>
+  </si>
+  <si>
+    <t>51547342</t>
+  </si>
+  <si>
+    <t>FCUPSG1012983</t>
+  </si>
+  <si>
+    <t>51547344</t>
+  </si>
+  <si>
+    <t>51547345</t>
+  </si>
+  <si>
+    <t>FCUPSG1012985</t>
+  </si>
+  <si>
+    <t>51547347</t>
+  </si>
+  <si>
+    <t>51547348</t>
+  </si>
+  <si>
+    <t>FCUPSG1012987</t>
+  </si>
+  <si>
+    <t>51547349</t>
+  </si>
+  <si>
+    <t>FCUPSG1012988</t>
+  </si>
+  <si>
+    <t>51547351</t>
+  </si>
+  <si>
+    <t>51547396</t>
+  </si>
+  <si>
+    <t>09-04-2022</t>
+  </si>
+  <si>
+    <t>CEV1005034</t>
+  </si>
+  <si>
+    <t>Quick Quote</t>
+  </si>
+  <si>
+    <t>51547409</t>
+  </si>
+  <si>
+    <t>51547412</t>
+  </si>
+  <si>
+    <t>51547415</t>
+  </si>
+  <si>
+    <t>51547421</t>
+  </si>
+  <si>
+    <t>51547427</t>
+  </si>
+  <si>
+    <t>51547430</t>
+  </si>
+  <si>
+    <t>51547628</t>
+  </si>
+  <si>
+    <t>09-11-2022</t>
+  </si>
+  <si>
+    <t>CEV1005046</t>
+  </si>
+  <si>
+    <t>51547630</t>
+  </si>
+  <si>
+    <t>51547631</t>
+  </si>
+  <si>
+    <t>CEV1005048</t>
+  </si>
+  <si>
+    <t>51547636</t>
+  </si>
+  <si>
+    <t>CEV1005049</t>
+  </si>
+  <si>
+    <t>51547637</t>
+  </si>
+  <si>
+    <t>CEV1005050</t>
+  </si>
+  <si>
+    <t>51547639</t>
+  </si>
+  <si>
+    <t>51547640</t>
+  </si>
+  <si>
+    <t>CEV1005052</t>
+  </si>
+  <si>
+    <t>51547645</t>
+  </si>
+  <si>
+    <t>CEV1005053</t>
+  </si>
+  <si>
+    <t>51547648</t>
+  </si>
+  <si>
+    <t>CEV1005054</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1652,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="959">
+  <fills count="1189">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6249,8 +6444,1158 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="889">
+  <borders count="1119">
     <border>
       <left/>
       <right/>
@@ -9428,6 +10773,811 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9436,7 +11586,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="531">
+  <cellXfs count="646">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -9967,7 +12117,122 @@
     <xf applyBorder="true" applyFill="true" borderId="882" fillId="952" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="884" fillId="954" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="886" fillId="956" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="958" borderId="888" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="888" fillId="958" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="890" fillId="960" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="892" fillId="962" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="894" fillId="964" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="896" fillId="966" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="898" fillId="968" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="900" fillId="970" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="902" fillId="972" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="904" fillId="974" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="906" fillId="976" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="908" fillId="978" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="910" fillId="980" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="912" fillId="982" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="914" fillId="984" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="916" fillId="986" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="918" fillId="988" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="920" fillId="990" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="922" fillId="992" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="924" fillId="994" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="926" fillId="996" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="928" fillId="998" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="930" fillId="1000" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="932" fillId="1002" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="934" fillId="1004" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="936" fillId="1006" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="938" fillId="1008" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="940" fillId="1010" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="942" fillId="1012" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="944" fillId="1014" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="946" fillId="1016" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="948" fillId="1018" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="950" fillId="1020" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="952" fillId="1022" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="954" fillId="1024" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="956" fillId="1026" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="958" fillId="1028" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="960" fillId="1030" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="962" fillId="1032" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="964" fillId="1034" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="966" fillId="1036" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="968" fillId="1038" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="970" fillId="1040" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="972" fillId="1042" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="974" fillId="1044" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="976" fillId="1046" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="978" fillId="1048" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="980" fillId="1050" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="982" fillId="1052" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="984" fillId="1054" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="986" fillId="1056" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="988" fillId="1058" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="990" fillId="1060" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="992" fillId="1062" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="994" fillId="1064" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="996" fillId="1066" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="998" fillId="1068" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1000" fillId="1070" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1002" fillId="1072" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1004" fillId="1074" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1006" fillId="1076" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1008" fillId="1078" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1010" fillId="1080" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1012" fillId="1082" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1014" fillId="1084" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1016" fillId="1086" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1018" fillId="1088" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1020" fillId="1090" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1022" fillId="1092" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1024" fillId="1094" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1026" fillId="1096" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1028" fillId="1098" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1030" fillId="1100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1032" fillId="1102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1034" fillId="1104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1036" fillId="1106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1038" fillId="1108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1040" fillId="1110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1042" fillId="1112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1044" fillId="1114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1046" fillId="1116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1048" fillId="1118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1050" fillId="1120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1052" fillId="1122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1054" fillId="1124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1056" fillId="1126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1058" fillId="1128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1060" fillId="1130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1062" fillId="1132" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1064" fillId="1134" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1066" fillId="1136" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1068" fillId="1138" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1070" fillId="1140" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1072" fillId="1142" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1074" fillId="1144" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1076" fillId="1146" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1078" fillId="1148" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1080" fillId="1150" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1082" fillId="1152" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1084" fillId="1154" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1086" fillId="1156" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1088" fillId="1158" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1090" fillId="1160" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1092" fillId="1162" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1094" fillId="1164" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1096" fillId="1166" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1098" fillId="1168" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1100" fillId="1170" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1102" fillId="1172" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1104" fillId="1174" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1106" fillId="1176" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1108" fillId="1178" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1110" fillId="1180" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1112" fillId="1182" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1114" fillId="1184" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1116" fillId="1186" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1188" borderId="1118" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -10615,8 +12880,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="463" t="s">
-        <v>432</v>
+      <c r="B2" s="626" t="s">
+        <v>514</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -10670,20 +12935,20 @@
       <c r="V2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="462" t="s">
-        <v>431</v>
-      </c>
-      <c r="X2" s="467" t="s">
-        <v>434</v>
-      </c>
-      <c r="Y2" s="464" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z2" s="465" t="s">
-        <v>433</v>
-      </c>
-      <c r="AA2" s="466" t="s">
-        <v>433</v>
+      <c r="W2" s="625" t="s">
+        <v>521</v>
+      </c>
+      <c r="X2" s="630" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y2" s="627" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z2" s="628" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA2" s="629" t="s">
+        <v>522</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>30</v>
@@ -10703,8 +12968,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="469" t="s">
-        <v>432</v>
+      <c r="B3" s="632" t="s">
+        <v>514</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -10760,20 +13025,20 @@
       <c r="V3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W3" s="468" t="s">
-        <v>435</v>
+      <c r="W3" s="631" t="s">
+        <v>524</v>
       </c>
       <c r="X3" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="Y3" s="470" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z3" s="471" t="s">
-        <v>436</v>
-      </c>
-      <c r="AA3" s="472" t="s">
-        <v>436</v>
+      <c r="Y3" s="633" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z3" s="634" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA3" s="635" t="s">
+        <v>525</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>76</v>
@@ -10799,8 +13064,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="474" t="s">
-        <v>432</v>
+      <c r="B4" s="637" t="s">
+        <v>514</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -10854,20 +13119,20 @@
       <c r="V4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W4" s="473" t="s">
-        <v>437</v>
+      <c r="W4" s="636" t="s">
+        <v>526</v>
       </c>
       <c r="X4" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="Y4" s="475" t="s">
-        <v>395</v>
-      </c>
-      <c r="Z4" s="476" t="s">
-        <v>438</v>
-      </c>
-      <c r="AA4" s="477" t="s">
-        <v>438</v>
+      <c r="Y4" s="638" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z4" s="639" t="s">
+        <v>527</v>
+      </c>
+      <c r="AA4" s="640" t="s">
+        <v>527</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>76</v>
@@ -10891,8 +13156,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="479" t="s">
-        <v>432</v>
+      <c r="B5" s="642" t="s">
+        <v>514</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -10946,20 +13211,20 @@
       <c r="V5" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W5" s="478" t="s">
-        <v>439</v>
-      </c>
-      <c r="X5" s="483" t="s">
-        <v>441</v>
-      </c>
-      <c r="Y5" s="480" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z5" s="481" t="s">
-        <v>440</v>
-      </c>
-      <c r="AA5" s="482" t="s">
-        <v>440</v>
+      <c r="W5" s="641" t="s">
+        <v>528</v>
+      </c>
+      <c r="X5" s="603" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y5" s="643" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z5" s="644" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA5" s="645" t="s">
+        <v>529</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>107</v>
@@ -10987,8 +13252,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="485" t="s">
-        <v>432</v>
+      <c r="B6" s="553" t="s">
+        <v>466</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -11042,20 +13307,20 @@
       <c r="V6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W6" s="484" t="s">
-        <v>442</v>
-      </c>
-      <c r="X6" s="489" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y6" s="486" t="s">
-        <v>395</v>
-      </c>
-      <c r="Z6" s="487" t="s">
-        <v>443</v>
-      </c>
-      <c r="AA6" s="488" t="s">
-        <v>443</v>
+      <c r="W6" s="552" t="s">
+        <v>479</v>
+      </c>
+      <c r="X6" s="604" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y6" s="554" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z6" s="555" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA6" s="556" t="s">
+        <v>480</v>
       </c>
       <c r="AB6" s="3" t="s">
         <v>80</v>
@@ -11079,8 +13344,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="491" t="s">
-        <v>432</v>
+      <c r="B7" s="559" t="s">
+        <v>466</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -11132,20 +13397,20 @@
       <c r="V7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W7" s="490" t="s">
-        <v>445</v>
-      </c>
-      <c r="X7" s="495" t="s">
-        <v>447</v>
-      </c>
-      <c r="Y7" s="492" t="s">
-        <v>405</v>
-      </c>
-      <c r="Z7" s="493" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA7" s="494" t="s">
-        <v>446</v>
+      <c r="W7" s="558" t="s">
+        <v>482</v>
+      </c>
+      <c r="X7" s="605" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y7" s="560" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z7" s="561" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA7" s="562" t="s">
+        <v>484</v>
       </c>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
@@ -11165,8 +13430,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="497" t="s">
-        <v>432</v>
+      <c r="B8" s="565" t="s">
+        <v>466</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -11220,20 +13485,20 @@
       <c r="V8" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="W8" s="496" t="s">
-        <v>448</v>
+      <c r="W8" s="564" t="s">
+        <v>486</v>
       </c>
       <c r="X8" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="Y8" s="498" t="s">
-        <v>409</v>
-      </c>
-      <c r="Z8" s="499" t="s">
-        <v>449</v>
-      </c>
-      <c r="AA8" s="500" t="s">
-        <v>449</v>
+      <c r="Y8" s="566" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z8" s="567" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA8" s="568" t="s">
+        <v>488</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>76</v>
@@ -11257,8 +13522,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="502" t="s">
-        <v>432</v>
+      <c r="B9" s="570" t="s">
+        <v>466</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -11312,20 +13577,20 @@
       <c r="V9" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="W9" s="501" t="s">
-        <v>450</v>
-      </c>
-      <c r="X9" s="506" t="s">
-        <v>452</v>
-      </c>
-      <c r="Y9" s="503" t="s">
+      <c r="W9" s="569" t="s">
+        <v>489</v>
+      </c>
+      <c r="X9" s="606" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y9" s="571" t="s">
         <v>412</v>
       </c>
-      <c r="Z9" s="504" t="s">
+      <c r="Z9" s="572" t="s">
         <v>228</v>
       </c>
-      <c r="AA9" s="505" t="s">
-        <v>451</v>
+      <c r="AA9" s="573" t="s">
+        <v>490</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>30</v>
@@ -11343,8 +13608,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="508" t="s">
-        <v>432</v>
+      <c r="B10" s="576" t="s">
+        <v>466</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -11396,20 +13661,20 @@
       <c r="V10" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="W10" s="507" t="s">
-        <v>453</v>
-      </c>
-      <c r="X10" s="512" t="s">
-        <v>455</v>
-      </c>
-      <c r="Y10" s="509" t="s">
+      <c r="W10" s="575" t="s">
+        <v>492</v>
+      </c>
+      <c r="X10" s="580" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y10" s="577" t="s">
         <v>416</v>
       </c>
-      <c r="Z10" s="510" t="s">
+      <c r="Z10" s="578" t="s">
         <v>228</v>
       </c>
-      <c r="AA10" s="511" t="s">
-        <v>454</v>
+      <c r="AA10" s="579" t="s">
+        <v>493</v>
       </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -11425,8 +13690,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="514" t="s">
-        <v>432</v>
+      <c r="B11" s="582" t="s">
+        <v>466</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -11480,20 +13745,20 @@
       <c r="V11" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="W11" s="513" t="s">
-        <v>456</v>
-      </c>
-      <c r="X11" s="518" t="s">
-        <v>458</v>
-      </c>
-      <c r="Y11" s="515" t="s">
+      <c r="W11" s="581" t="s">
+        <v>495</v>
+      </c>
+      <c r="X11" s="607" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y11" s="583" t="s">
         <v>420</v>
       </c>
-      <c r="Z11" s="516" t="s">
+      <c r="Z11" s="584" t="s">
         <v>228</v>
       </c>
-      <c r="AA11" s="517" t="s">
-        <v>457</v>
+      <c r="AA11" s="585" t="s">
+        <v>496</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>30</v>
@@ -11511,8 +13776,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="520" t="s">
-        <v>432</v>
+      <c r="B12" s="588" t="s">
+        <v>466</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -11566,20 +13831,20 @@
       <c r="V12" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="W12" s="519" t="s">
-        <v>459</v>
-      </c>
-      <c r="X12" s="524" t="s">
-        <v>461</v>
-      </c>
-      <c r="Y12" s="521" t="s">
+      <c r="W12" s="587" t="s">
+        <v>498</v>
+      </c>
+      <c r="X12" s="608" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y12" s="589" t="s">
         <v>424</v>
       </c>
-      <c r="Z12" s="522" t="s">
+      <c r="Z12" s="590" t="s">
         <v>228</v>
       </c>
-      <c r="AA12" s="523" t="s">
-        <v>460</v>
+      <c r="AA12" s="591" t="s">
+        <v>499</v>
       </c>
       <c r="AB12" s="3" t="s">
         <v>30</v>
@@ -11597,8 +13862,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="526" t="s">
-        <v>432</v>
+      <c r="B13" s="593" t="s">
+        <v>466</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -11650,20 +13915,20 @@
       <c r="V13" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="W13" s="525" t="s">
-        <v>462</v>
-      </c>
-      <c r="X13" s="530" t="s">
-        <v>464</v>
-      </c>
-      <c r="Y13" s="527" t="s">
+      <c r="W13" s="592" t="s">
+        <v>500</v>
+      </c>
+      <c r="X13" s="597" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y13" s="594" t="s">
         <v>428</v>
       </c>
-      <c r="Z13" s="528" t="s">
+      <c r="Z13" s="595" t="s">
         <v>228</v>
       </c>
-      <c r="AA13" s="529" t="s">
-        <v>463</v>
+      <c r="AA13" s="596" t="s">
+        <v>501</v>
       </c>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
